--- a/500all/speech_level/speeches_CHRG-114hhrg20260.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg20260.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="93">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,18 +52,12 @@
     <t>400380</t>
   </si>
   <si>
-    <t>Christopher H. Smith</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Smith. The subcommittee will come to order, and good afternoon and welcome to everyone. In January 2014, ISIS terrorists captured the city of Fallujah in central Iraq a decade after it had been won at the cost of so much American, Iraqi, and British blood. ISIS moved north, taking more territory, and conducting its genocidal campaign again Christians, Yazidis, and other religious minorities. By early August, Yazidi men, women, and children were trapped on Mount Sinjar facing annihilation when the U.S. initiated airstrikes to save them.    However, beyond that, it soon became clear that the administration had no comprehensive plan to prevent ISIS from continuing to commit genocide, mass atrocities, and war crimes or to roll ISIS back.    This subcommittee, along with the Middle East and North Africa Subcommittee, co-chaired by my good friend and colleague, Ileana Ros-Lehtinen, convened a hearing on the genocide in December 2014 and called for the administration to act before those communities of Christians and others were annihilated.    Meanwhile, across the porous border in Syria, the Assad regime was targeting and killing tens of thousands of civilians. I renewed my call again for a Syrian war crimes tribunal to be established to hold all sides in the conflict of Syria accountable, and we had heard from such great leaders, the former chief prosecutor who will testify today, David Crane, about the importance of taking action in a tribunal that had the flexibility and the capability to really hold people to account on all sides. The world knew that ISIS was committing genocide. Civil society groups, including some present at this hearing today, mobilized, writing letters and holding meetings with the administration, making statements and reporting stories.    As a matter of fact, parenthetically, my first hearing that I held here in this room was more than 3 years ago on the genocide against Christians. Why was there such an indifference on the part of some within the administration?    However, some members of the administration were pushing hard internally for the word ``genocide'' to be publicly spoken and for action to be swiftly taken. Yet the administration still had not acknowledged it and still had no strategy to prevent it from happening. Such was the situation in December 2015 when this subcommittee convened yet another hearing. Shortly after, the Congress passed and the President signed into law the Fiscal Year 2016 appropriations bill, the omnibus bill, which required the Secretary of State to report to Congress with his evaluation on whether ISIS had perpetrated genocide.    Perhaps the most important push outside the government and off the Hill was the 280-page report commissioned by the Knights of Columbus and developed in partnership with the tireless organization In Defense of Christians meticulously documenting the genocide against Christians. That report may have made the difference with the administration, so I am personally grateful to Carl Anderson, the Supreme Knight who is here to testify again, and for the Knights, along with the other groups, including A Demand For Action, that have done so much to ensure that genocide against Christians and others could not be ignored, trivialized, or denied.    The House passed H. Con. Res. 75, authored by my good friend and colleague, Jeff Fortenberry, together with the Syrian War Crimes Tribunal Resolution that I had sponsored, H. Con. Res. 121, 3 days before the Secretary's evaluation was due. Finally, on March 17, Secretary Kerry declared that ISIS is ``responsible for genocide against groups in areas under its control, including Yazidis, Christians, and Shia Muslims.''    Although the administration made the right determination, a long time coming but they did, the question arises now, now what? I already have concerns that historical mistakes are being repeated. Leading up to Secretary of State Colin Powell's historic genocide determination in September 2004--and I was very much a part of pushing for that to happen, along with others like Frank Wolf--the State Department's legal adviser had issued a memorandum that concluded that ``a determination that genocide has occurred in Darfur would have no immediate legal--as opposed to moral, political, or policy--consequences for the United States.''    Secretary Kerry's legal advisers reportedly reached the same conclusion before he made his determination about ISIS. And so it again begs the question, now what?    For years, the administration has been unwilling to effectively address the slaughters in Syria and Iraq. If it still thinks it has no obligation to act, it will likely continue its policy of acting too little too late. I am also concerned that the administration continues to conflate its strategy to combat ISIS with a strategy to protect religious minorities from genocide, war crimes, and mass atrocities. They are not the same. Combatting and defeating ISIS and Islamist extremism, of course, is essential. However, there are many other elements of an effective comprehensive civilian protection strategy, putting effective monitoring and response systems in place, and we have yet to hear them from the administration.    Civilian protection has long been missing from the administration's response to the carnage in Syria. More than half its population, an estimated 13.5 million inside Syria, as of May 2016, plus another 4.8 million registered as refugees abroad, are in need of humanitarian assistance and protection. According to an April 2016 review of the casualty estimates of that conflict, the number of people who have died during Syria's civil war conflict since March 11, 2011, range from 250,000 to 470,000. Notwithstanding the challenges of knowing exactly how many of those people were civilians and exactly how many were killed by the Assad regime and its proxies, we know this: The dictatorship has consistently, deliberately targeted civilians, hospitals, and schools with bombs and bullets and starved entire cities.    While Russia, Iran, and Hezbollah have fueled the fires of death in Syria, the administration has mostly just watched Syria burn. Let me also point out that, in his testimony today--and it is worth really highlighting because others will make similar points--but Carl Anderson makes the point that ``we are reliably informed that official government and U.N. aid does not reach the Christian genocide survivors in Iraq or in Syria.&lt;greek-l&gt;'' deg. &lt;greek-l&gt;`` deg.Repeatedly,'' he goes on to say, ``we hear from church leaders in the region that Christians and other genocide survivors are last in line for assistance from governments. Significantly, the Archdiocese of Erbil, where most Iraqi Christians now live, receives no money from any government whatsoever. If assistance from outside church-affiliated agencies ends in Erbil, Christians there will face a catastrophic humanitarian tragedy within 30 days. The situation is similar in Syria, according to Christian leaders there.''    There is no easy single solution to the threats to religious and ethnic minorities and other civilians in Iraq and Syria. Obstacles clearly abound, including failures to implement the Iraq Constitution, especially the decentralized power and localized governance and security; longstanding unresolved disputes between Iraqi Arabs and Kurds over territory and natural resources; lack of accountability for genocide, mass atrocities, war crimes, torture, kidnappings, displacement, and more by a range of actors; the actions of an indigenously developed, internally supported national reconciliation process; conflicts over revenue sharing, corruption and radicalization.    The list is long, complex, and it must never, however, be an excuse for indifference and inaction. However, unless key issues that preceded the genocide are addressed, the genocide may be perpetuated again, and it certainly is going on right now.    Over the coming weeks, I plan to introduce a comprehensive piece of legislation aimed at contributing to the safety and security of religious and ethnic minorities and civilians more broadly in Iraq and Syria. It will also address the need for accountability for genocide, mass atrocities in those conflicts, and will also again call for a tribunal, like we saw in Sierra Leone, Rwanda, or the former Yugoslavia, and I do hope that the Senate at some point, hopefully soon, takes up our resolution that is pending before the Sentate Committee on Foreign Relations.    I would like to yield to my good friend and colleague, the ranking member, Ms. Bass.</t>
   </si>
   <si>
     <t>412404</t>
   </si>
   <si>
-    <t>Karen Bass</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Bass. Thank you, Mr. Chairman.    Good afternoon to the witnesses.    I look forward to hearing your perspectives regarding these critical issues. As you know, on March 17, 2016, Secretary of State John Kerry declared that ISIS is responsible for genocide against groups in areas under its control, including the Yazidis, Christians, and Shia Muslims. The Secretary went on to chronicle numerous atrocities against various ethnic and religious groups by ISIL over the last few years. The question posed to the witnesses today is a logical result of the determination of genocide, specifically what actions need to be taken by the U.S., the international community, and, frankly, the region, to prevent further genocide.    Secretary Kerry noted in his statement on March 17 that the best response to genocide is a reaffirmation of the fundamental right to survive of every grouped targeted for destruction.    I look forward to hearing from the witnesses today on how that can best be achieved, bearing in mind the ongoing suffering of women, men, and children who live in constant fear.    Thank you, Mr. Chairman.</t>
   </si>
   <si>
@@ -73,52 +67,34 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Rohrabacher</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Rohrabacher. Thank you very much, Mr. Chairman. When we come to this issue and we look at this, it behooves us to open our hearts and try to come up with a formula that is going to help those people who are who are most in need and people whose lives are most in jeopardy. And, unfortunately--and I am just going to have to say, and I will try not to make this political--but our President has not come to the standard that I believe is adequate to deal with this horrible situation and the challenge that we face in the Middle East. It could be the guy's unable to say ``radical Islamic terrorism,'' even after our Ambassador was slaughtered and murdered in Benghazi, and he hasn't been able to say those words since.    And we have been on him because of that, but that mindset will have implications, and it has implications in the issues that we are talking today. We have innocent people by the hundreds of thousands, if not by the millions, who are in jeopardy of being slaughtered in the same way the Jews were slaughtered during the Holocaust.    And when I look at the figures of the people who are being permitted into this country right now under this administration, the Christians who are the basic target, the most vocalized target of these radical Muslims who are there who are involved with this terrorist activity, the Christians are underrepresented in the number of immigrants in terms of refugees and in terms of people who are actually immigrating from those countries in which they have been targeted for genocide. This is wrong. This is absolutely wrong. It is like sending the Jews back and saying: We are going to have a more open policy because of the Nazis, but the Jews aren't going to be able to come in.    I would hope that we as Americans, both Republicans, Democrats, and this administration and this Congress, recognize we are in a moment now where we are defining ourselves, and we need to make sure that when Christians are under the threat of genocide, that they should have some priority over those other people in those countries that are not targets of genocide. And this isn't some sort of discrimination against Muslims or anybody else or Shiites or anybody else, but let's recognize that that is what is going on and that is what the threat is and deal with the threat and not try to have a debate that is sanitized over here in theory.    So I am very pleased, and I am grateful to Congressman Smith, who, again, has demonstrated his total commitment to human rights of every person on this planet and how he commits himself to these issues.    Chairman Smith, I would suggest that we again, and today we are reaffirming that we hear ISIL when they say that they are going to slaughter all the Christians. We hear them when they make proclamations of genocide against Christians and, yes, Yazidis as well and others as well, but specifically to the Christians and the Yazidis, and that we will then make sure that we mobilize, and we help mobilize the American people, which is what this hearing is all about, to save the Christians from genocide. It is up to us. I don't want future generations to look back on this generation of Americans and say: They closed their ears because they had clinical analysis to do whether or not you could single out one group that is being targeted for genocide for preferential treatment in terms of immigration and refugee status. I don't want to hear that, which resulted in hundreds of thousands or maybe millions of Christians dying in the Middle East.    Let's get serious about this. I appreciate this opportunity to join you, Mr. Chairman, in this very moral effort to make sure our country is practical and is courageous enough to handle this challenge, this moral challenge of our day, to save the people who are being targeted for genocide. Thank you very much.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Smith. Thank you, Chairman Rohrabacher, for your very powerful statement and for your leadership on human rights. I appreciate it. We all do.    I would like to introduce our very distinguished panel beginning with Mr. Carl Anderson, who is Supreme Knight of the Knights of Columbus, where he is chief executive officer and chairman of the board of the world's largest Catholic family fraternal service organization, with over 1.9 million members. Mr. Anderson has had a distinguished career in public service and as an educator as well. From 1983 to 1987, he served in various positions in the Executive Office of the President of the United States, including Special Assistant to the President, and Acting Director of the White House Office of Public Liaison. Following his service in the House, he also served for nearly a decade as a member of the U.S. Commission on Civil Rights.    I will then move on to Mr. Sarhang Hamasaeed, who is a senior program officer for the Middle East and North Africa Programs at the U.S. Institute of Peace. He joined USIP in February 2011. He works on program management, organizational development, monitoring, and evaluation. He also provides political and policy analysis on Iraq to the Institute of Peace and other peacekeeping actors. As Deputy Director General of the Council of Ministers of the Kurdistan Regional Government of Iraq, he managed strategic government modernization initiatives through information technology with the goal of helping to improve governance and service delivery. He has also worked with the Research Triangle Institute International, Kurdistan Save the Children, the Los Angeles Times, and other media organizations.    We will then hear from Mr. Johnny Oram who is the executive director of the Chaldean Assyrian Business Alliance, dedicated to professional and social advancement of communities worldwide. He has been involved in the advocacy for the plight of the Iraqi and Syrian Christians who have been displaced due to the conflict. Additionally, Mr. Oram is involved in advocacy of the rights of the disabled, specifically those with autism spectrum disorder, or ASD. He has served in numerous capacities at the local, State, and Federal levels of government, worked for the Michigan legislature, Hawaii legislature, and in the U.S. Senate.    We will then hear from Ms. Naomi Kikoler, who is the Deputy Director of the Simon-Skjodt Center for the Prevention of Genocide at the United States Holocaust Museum. For 6 years, she developed and implemented the Global Centre for the Responsibility to Protect work on populations at risk and efforts to advance R2P globally and led the Center's advocacy, including targeting the U.N. Security Council. She is also an adjunct professor at the New School University and author of numerous publications previously. She worked on national security and refugee policy for Amnesty International Canada and in the office of the prosecutor of the United Nations International Criminal Tribunal for Rwanda.    We will then hear from Mr. David Crane, who was appointed a Professor of Practice at Syracuse University College of Law in December 2006. He was the founding chief prosecutor of the Special Court for Sierra Leone, an international war crimes tribunal that put many of the worst actors in that terrible, terrible tragedy behind bars. Ultimately, Charles Taylor got 50 years of prison sentence at The Hague because of the great landmark work that Professor Crane did. Professor Crane's mandate was to prosecute those who bore the greatest responsibility committed during the civil war in Sierra Leone in the 1990s. He served for more than 30 years in the Federal Government. He has held numerous key managerial positions and has been dogged in his work to document the atrocities that are occurring in Syria and in the region.    So thank you all for being here. What you convey to us and, by extension, to the Congress, hopefully to the administration, will help provide us with a roadmap going forward. So, Mr. Anderson, please proceed.</t>
   </si>
   <si>
-    <t>Anderson</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Anderson. Well, thank you very much, Mr. Chairman, for the opportunity to appear before the subcommittee today. The House of Representatives, the State Department, and the United States Commission on International Religious Freedom are all to be commended for declaring the situation confronting Christians and other religious minorities in the Middle East to be genocide. As we all know, the world's greatest humanitarian crisis since World War II is unfolding now in the Middle East. In addition to millions of refugees, many of the region's indigenous communities now face extinction. These communities may disappear in less than a decade, but their fate is not inevitable. The United States can avert this unfolding tragedy with a policy that contains, we believe, the following six principles: First, increase aid and ensure that it actually reaches those most in need. We are reliably informed, as the chairman has stated earlier, that official government and U.N. aid does not reach the Christian genocide survivors in Iraq and Syria. Repeatedly we hear from church leaders in the region that Christians and other genocide survivors are last in line for assistance from governments. Significantly the Archdiocese of Erbil, where most Iraqi Christians now live, receives no money from any government whatsoever. If assistance from outside church-affiliated agencies ends in Erbil, Christians there will face a catastrophic humanitarian tragedy within 30 days. And the situation is similar in Syria, according to Christian leaders there.    Those who face genocide are a tiny fraction of the population. They often must avoid official refugee camps because they are targeted for violence there by extremists. As a result, these minorities often do not get official aid, and this will continue to be the reality, unless specific action is taken to bring the aid to where these minorities are forced to reside by continuing violence.    Knights of Columbus and other private sources have responded to this situation, but nongovernmental organizations can only do so much. It is essential, therefore, that government aid is increased and that we ensure it reaches those most in need, even if special emergency appropriations are required to do this.    Second, support the long-term survival in the region of these ancient indigenous religious and ethnic communities. In Iraq, the Christian population has declined by more than 80 percent, and in Syria, it has declined by almost 70 percent. American policy should recognize the important differences in the situations of those fleeing violence and those targeted for genocide, and quite frankly, we should prioritize the latter. Consider this analogy: After World War II, there were approximately 50 million refugees, but only a small fraction were Jews. Yet the world understood that Jews who had survived genocide faced a qualitatively different situation and deserved heightened consideration. The same is true today for the indigenous minorities of the region. They have an indisputable right to live in their country in whatever region of it they wish. Depending on the circumstances, this may mean that they will live where they are originally from or where they find themselves now, but as survivors of an ongoing genocide, they deserve to be prioritized in American policymaking decisions.    Third, punish the perpetrators of genocide and crimes against humanity. The United States should support action by the U.N. Security Council to refer key perpetrators of genocide for prosecution. Equally important, we should support the Iraqi Government and the Kurdish Regional Government's adjudication of the cases of thousands of ISIS fighters and supporters who remain in local detention centers. This will assist in the important work of obtaining and preserving evidence of genocide.    Fourth, we should assist victims of genocide in attaining refugee status. The news report as of last week indicated that of the 499 Syrian refugees admitted to the U.S. in May, not one was explicitly listed as being Christian or as coming from any of the groups targeted for genocide. We must ask, how long will this situation be allowed to continue? The U.S. should appropriate funding and work with the U.N. High Commissioner for Refugees to make provisions for locating and providing status to individuals, such as Yazidis and Christians, that have been targeted for genocide. As I mentioned earlier, many of these genocide survivors fear going into official U.N. refugee camps where they are targeted. Thus, they are overlooked and find it nearly impossible to acquire official refugee status or to immigrate.    Congress should act now. Senator Tom Cotton has introduced the Religious Persecution Relief Act, S. 2708, to provide for overlooked minorities in the prioritization of refugees. We support this bill, and we urge its passage.    Fifth, prepare now for the foreseeable human rights challenges as ISIS--controlled territory is liberated by ensuring that Christians and other minorities have equal rights to decide their future, and obviously, this is going to happen very soon as a result of what is happening in Fallujah and Mosul. We should prepare now for the consequences of the liberation of ISIS-controlled areas. We are likely to see another humanitarian crisis as thousands of civilians flee the fighting or return to their former communities when the fighting ceases.    There has been much debate concerning plans for victims of genocide in Iraq. Some have argued for returning people safely to the Nineveh region; others that they should be allowed to stay in Kurdistan; still others that they should be allowed to immigrate. But these are not necessarily ultimately exclusive competing proposals. People should be allowed to decide their own future, and when they do, we should work to ensure that they are treated with fairness, dignity and equality. This also means that it will be increasingly important to ensure that the property rights and claims of minority groups are respected.    And, finally, sixth, promote the establishment of internationally agreed-upon standards of human rights and religious freedom as conditions for our humanitarian and military assistance. The United States should advocate for full and equal rights for religious and ethnic minorities in the region in exchange for our military and humanitarian aid. A necessary first step to prevent genocide is to overcome the social and legal inequality that is its breeding ground. We should not accept one standard for human rights in the region and another standard for the rest of the world. The rich tapestry of religious pluralism in the region must be preserved now, or it will be lost forever. With its loss will come increasing instability and threats to our own national security and that of the world.    We have a unique opportunity, and some would say a unique responsibility, to protect the victims of genocide. The United States can provide such protection with a policy that includes the principles outlined above.    Mr. Chairman, we thank you very much for your leadership and that of the other members of the committee.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Smith. Mr. Anderson, thank you so very much for your comments, the very tangible support you are providing to the at-risk minorities, especially Christians. And those six points, they are very, very, very well thought out.    I would like to now recognize Mr. Hamasaeed, and thank you for being here and for your testimony.</t>
   </si>
   <si>
-    <t>Hamasaeed</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Hamasaeed. Chairman Smith, Ranking Member Bass, and members of the subcommittee, thank you for the opportunity to testify before you today. I am testifying as a senior program officer of the U.S. Institute of Peace. The views expressed here are my own and do not represent that of the institute. USIP works extensively and closely with Iraqi minorities, specifically religious minorities. We support them by establishing an organization called the Alliance for Iraqi Minorities so that they have the capability to represent themselves, and so, in that vein, a lot of what I mention today is coming from experience directly engaging and trying to help those minorities.    Definitely, the minorities in Iraq need all the support that they can get as well as other communities, nonminority communities, in Iraq.    The dilemma of the religious minorities is not something new. I think it is important to look into some of the history so that we can inform solutions that will, to see if they will work and how do we prepare for those. The reality is that the minorities have, over the past few decades, been caught in between the conflicts and the problems of actors that they were not a part of. They didn't choose those conflicts, but they were affected by those conflicts. And ISIS is not a product, and what they have done is not a product of today. ISIS is a cause of atrocity, but it also is a symptom of failure of governance and the space it has created resulting from the political divisions among the big actors in Iraq and the region.    So it is true that the minorities have suffered probably the most at the hands of ISIS in the sense that they came under attack, for displacement, for genocide, and also chemical attacks against the Turkomans in the Taza district of Kirkuk. The Yazidis have had their women and others taken as sex slaves. The Christians have been labeled, their houses labeled, and they came under specific attack.    Then the question comes: What was the response? The specific question that was addressed to me to talk about was the response of the Government of Iraq and the Kurdistan Regional Government. And to look at this, you can look at this from the perspective of a glass half full or a glass half empty. The reality is that the minorities believe that the Government of Iraq and the Kurdistan Regional Government have not been able to protect them; that they have been displaced, and they have been affected. But it is also true that the Kurdistan Regional Government and the Government of Iraq have provided camps and shelters and provided food and assistance. They were also supported by the Iraqi community--which I think is important--and they have to recognize their efforts in absorbing this crisis and the problems here.    But the reality is that the scope of the problem is well beyond the capacity of one single actor, one single government, or one single community. It requires a collective action. And there is a sense of fatigue for the years of displacement, especially since 2003. The limited capacity of the government and other actors needs to be taken into consideration into what assistance is provided.    I think that there is a need for rethinking the assistance that is given to the minorities and their situation. On protection, the call for protection is not something new. This has been, as you mentioned, Mr. Chairman, there has been a call by the minorities to address this for a long time. And the kind of risk that the minorities are confronted with, they are existential threats that threaten their collective well-being. It is also a direct risk to their security as individuals and communities.    So the risk of revenge, I would like to single out. We talked about the post-return. There is a scenario of protracted displacement, which will be a scenario that we have to deal with. In the 2006, 2007 peak of violence in Iraq, about 1 million people never returned home. And the current 3.3 million people that are displaced, about 1 million of them minorities, they will likely not be able to return for quite some time because of problems that are on the ground, and the revenge is killing and the potential violence coming in those areas is a potential risk to them.    The U.S. Institute of Peace has worked on models that help the return of IDPs and prevent violence. We have done this in the context of Salahuddin and the Speicher massacre that ISIS perpetrated against the Shia cadets and soldiers who were in that camp. We facilitated dialogue among the tribes, and we have been able to mitigate the violence and prevent killing and facilitate the return of IDPs. Tikrit right now has about 150,000 people who have returned since May of last year.    The same kind of effort will be needed in the context of the minorities because there are several layers of conflict that need to be addressed: Risks coming from existential threats like ISIL; then there are risks that will come from competition over scarce resources; and there will be risks coming from just tensions of some of the minorities considering what has happened to them by some of their Arab neighbors. There are minority-minority tensions that need to be addressed. There are Arab minority issues and Kurdish-Kurdish issues that need to be addressed. There is a need for conflict resolution to help them with the long-term viability.    The minorities have the organizations and the capabilities to help themselves. They have been a partner and a voice for the minorities over the years. The Alliance of Iraqi Minorities has worked with the national government and with the Kurdistan Regional Government to pass legislation and make sure their issues have been prioritized. And they could continue to play that role. But at the end of the day, the scope of the need, the magnitude of the problem, will require more than what has been provided to date. I cannot emphasize enough the need for international support for early detection and action on those warning signs that the minorities have been giving us.    It goes without saying that actually solving the bigger problems of Iraq will go a long way in helping the minorities over the long-term to stay safe and not to be attacked. While the minorities will be able to develop the capabilities to provide local security, larger existential threats coming from problems like ISIL, will require the help and the support of the Iraqi Government and the Kurdistan Regional Government and the larger communities around the minorities. So it is important to put emphasis on, how do you rebuild those relationships? How do we put mechanisms in place that will prevent those kinds of attacks?    I think the capacity is limited and the peaceful coexistence is the emphasis that we need to put in as a mechanism. Civil society organizations have been a good vehicle to help the Government of Iraq and the international community. They will need help in both a scenario of return, but also a scenario of protracted displacement, to prevent host community tensions as well.    So, with that, I will stop.    And thank you, Mr. Chairman, and members of the subcommittee. I look forward to your questions.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Smith. Mr. Hamasaeed, I am going to say thank you very much for your testimony, which was very extensive. I have read it, and other members, I am sure, have read it.    Without objection, your and all of the distinguished witnesses' full statements and any information you would like to attach to it will be made a part of the record. So thank you for that testimony.    Mr. Oram.</t>
   </si>
   <si>
-    <t>Oram</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Oram. Thank you very much, Mr. Chairman, members, guests. My name is Johnny Oram. I am the executive director of the Chaldean Assyrian Business Alliance based in Detroit, Michigan. We are an organization that is aimed at fostering professional relationships and also to enhance the betterment of our societies globally, especially at a critical time when the existence of our peoples in our motherland as well as in Syria is being threatened.    Before I go into recommendations for this committee, I would like to talk briefly about our peoples' presence here in the United States. We the Assyrians, Chaldeans, and the Syriacs are the descendants of the original peoples of Abraham. We are the indigenous peoples of Iraq. We are defined by our language, which is Aramaic, the language that the Lord Jesus Christ spoke. Oldest language in the world. We are also defined by our faith. We are a part of the Eastern Rite of the Roman Catholic Church in union with Rome. A good number of our Assyrians are from the Assyrian Church of the East, the Ancient Church of the East, and the Syriac Church, as well as the Presbyterian, and many other denominations.    My people immigrated to the United States in the early 20th century to come to the greatest nation in the history on Earth, a land where they can seek opportunities and be free to profess their faith. They came to communities such as Detroit to seek employment in our automotive plants. They came to the United States not only because of economic opportunities, but they came to the United States because the church and we had communities here that they were attracted to. When you have a church, they will come. And, subsequently, there are schools, which I will elaborate here a little bit later, but that is very important to our communities: The faith and family.    Oftentimes, the Assyrians and the Chaldeans are categorized as Arabs. However, we are not Arabs, but rather, we are in predominantly Arab countries, though many of our people live in Iran and Turkey, which are not Arab countries. Again, we are the indigenous peoples of the land. Nineveh was the capital of Assyria afterall. We have close to 150,000 Chaldeans and Assyrians in the metro Detroit region alone and an additional 200,000 throughout the United States in Chicago, Phoenix, San Diego, San Jose, Turlock, and Modesto. We also have a significant Syriac community in New York and Connecticut.    My people here in the United States have a deep connection and a relationship to our persecuted refugees in Iraq and Syria. And we have welcomed thousands of them who have come to the United States with open arms. We feel for them.    I would like to touch point on the people who want to leave. So I am going to go ahead and kind of emphasize on that here. Seeing as Christians and other minorities are particularly targeted by the Islamic State, it is imperative that they be given special consideration in the search for asylum. This is amplified by the fact that they even face persecution in asylum and shelters in Europe by radicals. Nuri Kino, a world renowned investigative journalist and founder of the grassroots human rights organization A Demand for Action, has been instrumental in uncovering this in Sweden and other places throughout Europe. Our people are being harassed. Our people are being threatened. They are being intimidated. They are being coerced, even in Europe.    The opening of the new processing centers in Erbil and Beirut, where the majority of Christians flee from Iraq and Syria, were positive steps. But the number of people processed must be increased to deal with the overwhelming. As far assimilating into the United States, I think this is a perfect time to have a conversation and to talk about schools like Keys Grace Academy in Madison Heights, Michigan. I alluded to schools. This is a first of its kind in the Nation where they have engaged in Assyrian language immersion and basically preserving our identity and our culture. And the school has also helped kids adjust and integrate into American culture while maintaining their heritage in a meaningful way.    The public education system here in the United States is woefully unprepared to deal with these kids, many of them who have seen severe trauma. But schools, like Keys Grace Academy, which are run by our own Chaldean and Assyrian people, who understand what they have been through, are extremely critical. Furthermore, groups like the Chaldean Community Foundation in Sterling Heights, Michigan--basically it is a suburb of Detroit. This organization has been instrumental in helping Assyrian and Chaldean refugees to assimilate into American society. The foundation processes over 20,000 visitors annually as they help our new arrivals into the metro Detroit region seek employment, health care, assistance, education, moral support, and so on. Our community in metro Detroit is 150,000 strong and growing. As you are all aware, Mr. Chairman, members and guests, my Congressman from Michigan's 11th congressional district, David Trott, offered an amendment to the NDAA, the National Defense Authorization Act, that passed the House on May 17, which is aimed at protecting Christians and other religious minorities throughout the Middle East from the Islamic State-led genocide by establishing a U.N. refugee processing center in Erbil. This requires the United Nations to step up and do its share to protect our vulnerable communities in Iraq, as well as the United Nations.    I also urge the United States Congress to reform the Refugee Act of 1980 by establishing more P-2 and P-3 visas for our refugees and bypassing the U.N.-mandated refugee allotments and quotas. Moreover, this is also going to be important for the refugees in that they can apply directly to admission to the United States of America, rather than be sent off to other lands, such as various designations in Europe and elsewhere, where they have been unwelcome.    Now, I would like to elaborate on the people who want to stay. The reality is that the vast majority of people will not be able or desire to leave. So the particularly important measure will be with those that deal with the situation in Iraq and Syria. In the short term, emergency aid going directly to these organizations on the ground is extremely critical. Aid organizations, like Help Iraq, the Assyrian Aid Society, ACERO, the Syriac Patriarchate, et cetera, have a proven ability to actually get aid to our people. Other organizations, such as my colleague Shachar Zahavi over at IsraAID, Israel's leading humanitarian organization, have been instrumental in providing aid, relief, and medical care for our refugees.    The fact that our people are still being targeted in UNHCR camps by locals, not by U.N. staff, they almost exclusively stop going to these U.N.-run camps and, therefore, critical aid doesn't reach them through traditional channels. Our aid organizations, which I have alluded to earlier, fill in the void as much as possible. But resources are always in dire straits. We have seen some legislative support in the Senate's foreign operations appropriations. But, unfortunately, the legislative support has not translated to enough material support on the ground.    I can't really emphasize how important this is, but we must directly support our indigenous aid organizations on the ground. For example, our own USAID sends funds to the United Nations with the intent of distributing these funds to our communities in Iraq and Syria. The Iraqi and Syrian Christians are not receiving any of these moneys. All this money goes to the UNHCR camps, a place which is unsafe for Christians and Yazidis and other religious minorities. Where is the security apparatus to protect our people in these camps, especially when they are trying to receive critical aid for their very own survival? Supporting local security forces in Iraq and Syria is the best way to ensure a stable environment where people are able to return. After the Islamic State invaded, both the Peshmerga and the Iraqi Army abandoned Christian and Yazidi areas of the Nineveh Plains and Sinjar, leaving the inhabitants defenseless and deeply distrustful of the institutional security apparatus.    Support authorized through the NDAA for the Assyrian, Chaldean, Syriac Christians, and other minorities in Iraq and Syria is crucial in standing up to these forces.    I worked with A Demand For Action on these efforts, and there has been some support realized for Syriac Assyrian forces in Syria, but the forces in Iraq are going to need considerable support. But it is support that they deserve and that they are entitled to and is the only way to gain confidence of the people who have inhabited these lands for thousands of years.    Finally, the creation of a safe haven with international protection which ultimately would be transitional to a province in the Nineveh Plains with the semblance of self-governance and self-security is the only way to regain the trust of the minorities who feel that they were betrayed by the Iraqi Government and the KRG.    These issues affecting our communities in Iraq and Syria are especially addressed in H. Res. 440, a resolution introduced by Congressman David Trott and Congressman Sherman of California, which calls for precise actions that can positively affect the situation on the ground. Marking up that resolution is critical as it would additionally serve as a moral boon to the beleaguered people as it is the first resolution in congressional history to recognize the Simele massacre in 1933, an event where 3,000 Assyrians were massacred under the watch of the Iraqi Government.    I would like to talk on the IDP situation in Turkey. Sixty-seven years ago, right here in Washington, DC, all the signatories to the North Atlantic Treaty Organization, NATO, agreed to the following: The parties to this treaty reaffirm their faith in the purposes and principles of the Charter of the United Nations and their desire to live in peace with all peoples and all governments. They are determined to safeguard the freedom, the common heritage, and the civilization of their peoples, founded on the principles of democracy, individual liberty, and the rule of law. They seek to promote stability and well-being in the North Atlantic area. They are resolved to unite their efforts for collective defense and for the preservation of peace and security.    Mr. Chairman, Members, being a member of NATO requires respecting peoples of all religions and all faiths. Many of our churches in Turkey are being confiscated by President Erdogan and the Council of Ministers in Turkey under this whole guise that they are basically going to reform and revitalize those communities that have been impacted by war, especially in places like Diyarbakir. My very bishop, Francis Kalabat, in Detroit, Michigan, and many Assyrian and Chaldean clergy oftentimes have to travel to Turkey to administer to the faithful there because our faithful basically cannot profess their faith freely.    This is a NATO ally. This is basically a campaign to begin the extermination of Christianity in the Middle East, and that really doesn't bode well for us. This is of extremely vital importance to our national security and to the security of the world. These include Catholics, Protestants, and Orthodox churches that date close to 2,000 years.    Mr. Chairman, I would sincerely request that you and your colleagues move forward existing efforts in Congress to urge the Turkish Government, led by President Erdogan and his Council of Ministers, to immediately return these churches to their rightful owners. This right here is an example of continued persecution and displacement of Christians in the region. Again, Turkey is supposed to be our ally, but they are not being a good actor in the situation. These actions clearly undermine the very agreement that the Turkish Government signed to become a member of NATO in 1952.    We, the United States of America, have a moral and fundamental obligation. We need to step up as leaders of the free world and help the thousands of Christians and other religious minorities escape displacement and death, give them hope when they have lost hope, and to reassure them that they have a place that they can come to if they so choose where they can be a part of a nation and contribute to our economy and our society.    As I have mentioned earlier, we have the resources to absorb them. This is the right thing to do. Thank you very much, Mr. Chairman. May God bless you and God bless America.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Smith. Thank you so much, Mr. Oram, for your testimony and recommendations and insights.    I would like to now recognize Ms. Naomi Kikoler, and thank you for being here.</t>
   </si>
   <si>
-    <t>Kikoler</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Kikoler. Thank you, Chairman Smith and Ranking Member Bass, for holding a hearing on this important issue and for the opportunity to testify. I ask that you include in the record the text of the Holocaust Memorial Museum's report issued last November, entitled ``Our Generation is Gone: The Islamic State's Targeting of Iraqi Minorities in Ninewa.''    Last month, I was sitting with a Yazidi woman in a displaced persons camp outside of Dohuk in the Kurdistan region of Iraq. She was kidnapped by Islamic State fighters in the village of Kocho during an attack where hundreds of Yazidi men were killed. When I met her, she, along with her two young children, had escaped her Islamic State captor in Syria only 2 weeks earlier. She had been forcibly converted to Islam, and for almost 2 years, she was held as a sex slave. She and her children are the face of a modern day genocide that is being perpetrated by the Islamic State. For those still being held today, that genocide is ongoing.    The administration's determination that this self-proclaimed Islamic State committed genocide and crimes against humanity against religious minorities is an important recognition of the heinous crimes committed by the Islamic State and the suffering of victims like the woman I met and her children.    However, if the label of genocide is truly to have meaning for the victims of that crime, then this discussion should evolve from a question of what happened to how to protect vulnerable communities, using military and nonmilitary tools, from future threats by the Islamic State and other extremist groups. This includes how to secure justice and accountability for the victims of their crimes.    Genocide is a rare occurrence. There is no blueprint for how the United States Government responds in situations where genocide has been committed or is taking place. With this in mind, we at the Simon-Skjodt Center for the Prevention of Genocide traveled last month to the Kurdistan region of Iraq and to newly liberated areas by Mount Sinjar to assess what needs to be done to protect vulnerable minorities as a followup to the report released in November 2015 documenting the commission of genocide, crimes against humanity, and ethnic cleansing committed by the Islamic State against minorities.    Our trip starkly revealed that these communities remain at risk of future atrocities. Those who stay in exile in the Kurdistan region of Iraq are physically safe, yet they yearn to return home. As long as the Islamic State exists, these communities will remain vulnerable. The Islamic State still occupies large swaths of land in Nineveh, making it impossible for minority communities to return home.    Certain liberated areas are also too dangerous for civilians to return home as they are within the range of ISIS mortar fire. This is particularly true for communities on the south side of Mount Sinjar and those close to Mosul.    Defeating the Islamic State, therefore, should remain a key priority of the U.S. Government's efforts if our hope is to ensure the very survival of these communities. Yet to animate this objective, civilian protection and the prevention of atrocity should be at the core of that strategy. We know from past cases that this requires a comprehensive and sustained strategy using military and nonmilitary tools that is calibrated to respond to evolving conditions on the ground to prevent genocide and other mass atrocities. In this context, a strategy would include day-after planning to identify scenarios and tools that would mitigate potential future flashpoints and implement strategies to address them, including rebuilding liberated areas, promoting reconciliation between groups, advancing justice and accountability efforts, and securing a political resolution between the Government of Iraq and the Kurdish Regional Government to the disputed areas in which many of Iraq's minorities live.    The most common sentiment that we heard from displaced minority communities and one that needs to be addressed is their lack of trust in the officials and institutions that are responsible for their physical protection and for guaranteeing their legal rights, as well as their deep distrust of their former Sunni Arab neighbors who they perceive as having been complicit in ISIS' attacks.    Religious minorities continue to feel that the Iraqi security forces and the Kurdish Peshmerga abandoned them when the Islamic State attacked Nineveh. Many also continue to feel that they are being used as political pawns by the Government of Iraq and the Kurdish Regional Government in the ongoing contest over the disputed areas. This leaves them nervous about who and how their land will be administered should they return home.    For over 10 years, religious minorities were targeted on the basis of their identity by extremist groups and were politically marginalized. The early warning of their vulnerabilities went largely unheeded, and as a result, many saw fleeing the country as their only protection option. Today, in the absence of what they, again, see as being credible actors to provide their physical protection, many communities are seeking to arm themselves. New threats are also emerging for not just religious minorities but also for the Sunni Arab population who may be the victims of revenge killings. The proliferation of unregulated and poorly trained militias may pose additional threats to civilians in areas liberated from the Islamic State as they seek to liberate additional territory. Many that we interviewed expressed concerns about the potential for conflict between militias within particular religious communities and amongst religious groups.    This all underscores that defeating the Islamic State and protecting vulnerable communities requires more than just a military strategy if civilians are to be protected. It requires tackling the root causes that allowed the Islamic State to rise and that enhance the vulnerabilities of minority communities.    In light of this, we believe that there are four principle areas where additional efforts could be paid to ensure both the immediate protection needs of vulnerable communities seeking to return home and ensure that the long-term and systematic drivers of conflict are mitigated.    Those are, first, an explicit policy to provide genuine physical protection to vulnerable populations. Protection could include strategies for employing local, domestic, and international actors to provide security to ethnic and religious minorities returning to liberated lands and Sunni Arab populations at risk of reprisal killings.    In planning military operations and broader policy objectives, actors should consider the possible unintended consequences of the actions taken and whether they will heighten risks for civilian populations living under the Islamic State's control and/or might contribute to future cycles of violence.    The Iraqi Government and international donors should ensure that all Iraqi security forces, Iraqi Kurdish Peshmerga, and local militias fully adhere to international human rights and humanitarian law standards and are held accountable for violations in accordance with international standards. Withholding military assistance to those groups who do not adhere to these standards could be a powerful tool in addressing the behavior of bad actors.    Second is support for stabilization and reconstruction efforts in liberated areas. This includes increasing the presence of development assistance from relevant agencies and departments. Many of the displaced expressed concerns to us that they will be unable to return home in the absence of economic opportunity and the reconstruction of their devastated region. High rates of unemployment within the Sunni population and perceived economic inequity was one of drivers of the rise of the Islamic State. Affected regions must be rebuilt and the engagement of the international community must be sustained in that endeavor in the years to come.    A critical component of stabilization and reconstruction efforts is investing in reconciliation so that diverse communities can once again live alongside each other. In the absence of such efforts, there is a grave potential for future conflict between communities.    Third, transitional justice efforts are central to responding to the commission of past crimes and the deterrence of future crimes. The clearest obligation in the Convention on the Prevention and Punishment of the Crime of Genocide is to punish the perpetrators of genocide, and international justice is the cornerstone upon which the international community has responded to the crime of genocide, from Nuremberg 70 years ago to the international criminal tribunals for Rwanda, Yugoslavia, and Cambodia.    Today, substantial support is needed to investigate, collect, and analyze evidence; secure mass grave sites; and detain perpetrators for the purpose of future prosecution. In this effort, we can't lose sight of the importance of holding individuals accountable for crimes committed at the local level.    The most common answer to the question of how can trust be built between minorities and the Sunni Arab population that we pose to people who are displaced was that those who committed crimes in their towns and villages needed to be held accountable in a court. The rampant culture of impunity has left high levels of distrust amongst ordinary Iraqis. They need to see justice advanced not only against the Islamic State's leaders for genocide but also for the crimes committed by their neighbors in their very own communities. This necessitates detaining fighters, investigating their crimes, and then prosecuting them at the national as well as possibly the international level.    Fourth is securing the political resolution to the ongoing dispute between the Kurdish Regional Government and the Iraqi Government over Nineveh. Our report was very clear in identifying the ongoing dispute as a key factor that exacerbated the vulnerability of minority communities in part because the dispute is perceived as having contributed to growing support for extremist groups, and when the Islamic State advanced, there were no clear lines of responsibility. As long as responsibility for protecting these communities remains in question, vulnerabilities will remain acute and create a vacuum that the Islamic State or a successor group could exploit.    Finally, to recognize a genocide has happened is to acknowledge a collective failure to prevent the crime of all crimes and to uphold the commitment to never again. Going forward, the U.S. and other governments will need to place civilian protection and the prevention of atrocities at the core of their counter-ISIL strategies, but the commitment to prevent and protect minorities must extend beyond the current threat posed by the Islamic State. We must endeavor to ensure that in 10 years, we are not yet again meeting in the wake of another failure to protect vulnerable minorities in Iraq and Syria.    Countering the Islamic State and preventing future atrocities perpetrated by other groups necessitates an ongoing assessment of those groups' motivations, organization, and capabilities for committing atrocity crimes, and of the vulnerabilities of at-risk communities. Continuous monitoring and analysis of the warning signs and risk indicators on the ground will be needed and strategies developed to ensure that threats facing minorities in the future are mitigated.    That is what upholding the commitment to prevent, enshrined in the Genocide Convention, should mean. Thank you.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Smith. Thank you so very much for your testimony and for reminding us of what the face of genocide is with your experience with the young woman and her two children. As you pointed out, she was forcibly converted to Islam. For almost 2 years, she was held as a sex slave. That is just numbing in how awful and horrific that reality has been, so thankfully you were there, and now you have conveyed that message to all of us. And that should be fresh impetus for all of us to do even more.    I would like to now yield to Mr. Crane, a former chief prosecutor of the Special Court for Sierra Leone.</t>
-  </si>
-  <si>
-    <t>Crane</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Crane. Thank you, Mr. Chairman.    I want to thank the subcommittee, its staff and, in particular, its chairman for its decades-long fight against the atrocities committed by state and nonstate actors around the world. In fact, you and I have been working together since 2002, along with many members of this committee, in seeking justice for the oppressed.    We are in an age of extremes with adversaries never contemplated facing challenges that are most likely not solvable. The 21st century is shaping up to be no better than what I call the bloody 20th century, where over 225 million people died of nonnatural causes, over 100 million of which that I estimate at the hands of their own governments.    In the 21st century, conflict will be kaleidoscopic and dirty, with one or all sides ignoring international law. Our current planning in the United States and preparation cycle make us incapable of dealing with these kaleidoscopic conflicts and events, and I am working with the International Peace and Security Institute to quantify that data.    Despite this, we have seen the evolution of modern international criminal law, which has now given us the practical and legal capability of holding dictators, thugs, and their henchmen accountable for atrocity if there is a political will to do so. I underscore ``if there is a political will to do so.'' If we do have that political will, we have the experience now to prosecute those who feed on their own peoples.    Now, we have mentioned many numbers this afternoon related to casualties: 300,000 persons killed, over 10 million refugees moving about the region with no hope and no homes. But I do want to underscore that these are about human beings, individual human beings. When I was in Sierra Leone, I would hold townhall meetings, and I was in Makeni, the headquarters of the infamous Revolutionary United Front, who cut hands off of victims and other body parts. And as I was holding this townhall meeting, a young child soldier stood up. He was about 12, and he looked at me in the eye, and he began to weep, and he said: I killed people. I am sorry. I didn't mean it.    And as I was holding him in my arms as he wept, a young woman stood up 10 feet from me, most of her face was missing because it had been put in a pot of boiling water. She was holding her child, and she, through cracked lips, said: Seek justice.    That is why we do this. And that is why I want to underscore in my remarks today that we don't forget that it is individual human beings, one person at a time.    There has been a complete breakdown of the rule of law and accountability in the Levant. The laws of armed conflict are ignored, resulting in mounting civilian casualties. There is an increased use of banned weapons systems, such as barrel bombs and chemical weapons, along with the increase in various torture and execution methods not seen since the Dark Ages. The Caesar Report, which I coauthored and which we testified a year or so ago, found direct and clear and convincing evidence of this horror.    In the Levant region, there are three international crimes that are being committed. They have been highlighted in this testimony and are well-known by this subcommittee: War crimes, crimes against humanity, and possibly genocide. I want to underscore and caution that we have to be very careful that politicians and diplomats tend to rank or tier international crimes and holding out genocide as the top tier.    Well, I would just submit respectfully to this subcommittee that 300,000 people killed as a result of an international crime don't care whether it is a genocide, crime against humanity, or war crime. So I want to caution our use of terms. They are important, but they are crimes, and I also want to point out, of these three crimes, one is a specific intent crime, which means that you have to have a specific intent to destroy in whole or in part a peoples.    It is a difficult crime to prove, and in some cases, you almost need a smoking gun, so I would just caution this subcommittee, when they are considering the war crimes, watch out for tiering and ranking the crimes, as well as understanding that genocide, even though a very serious crime indeed, a crime of crimes, is a difficult and very specific type of crime, which at the legal level, has to be clearly or beyond a reasonable doubt proven each and every element.    So what is next then? You asked me that question. First, there must be a realization that the ISIS phenomenon is a decades-long challenge. We are entering into an effort that is of cold war ramifications.    At this time, we do not have a solution for this challenge. Until we do have a realistic and practical solution, we must understand that we may not be able to restore international peace and security, only manage some sense of security in the Levant. The conflict there truly is kaleidoscopic in nature, where if one thing changes, everything changes. We cannot predict or plan what happens next.    The cornerstone to a possible beginning of a solution is Arab resolve and cooperation. However, this may not be possible given political realities. The West cannot be seen as an interloper, only as a patient enabler and a facilitator. We can't be seen as launching the seventh crusade, so to speak.    Over the next several years, you must contain the ISIS threat regionally, stamp out ISIS' attempts to further their cause elsewhere and focus on achievable programs in the region locally and domestically, and I would underscore some of the important points made by my colleagues this afternoon.    I just would like to say a young man or woman who has a job and some hope for a better future is less likely to turn to terror and to ISIS. Essentially, what I am saying is that we cannot defeat ISIS using kinetic energy alone. In reality, it can only be done through economic revitalization, almost a Marshall Plan for the Middle East. It is that kind of commitment.    Additionally, we can take realistic steps to start an accountability mechanism for the region, particularly as it relates to ISIS atrocities. If we have the political will, we can establish some tried and true methods. We should start with a truth commission, not a reconciliation commission at this point, but start with a truth commission. Let's get something started. Let's get something going.    We also have the ability and the experience to set up a domestic court or an internationalized domestic court, even a hybrid regional court, which we did in the Special Court for Sierra Leone. The International Criminal Court, though an important and permanent entity, is politically, unfortunately, neutralized by the United Nations Security Council and, unfortunately, will not play a major part in this effort, even though we need to recognize that they do have a potential place. The practical reality is, a domestic court, an internationalized domestic court, or hybrid regional court supported by regional countries, countries in the region, is the most practical and realistic opportunity.    Now, these mechanisms can be headquartered in Iraq, Turkey, or Jordan, supported by members of the Arab League. The international community could assist and train commission or court personnel as requested and needed. The idea is having Arab states prosecuting Arabs for crimes against Arab peoples in violation of Arab laws.    Now, we have done this before with the Special Court for Sierra Leone. We have moved into an area, worked with peoples, developed methodologies, efficiently managed justice mechanisms and broad accountability to millions of victims there in West Africa. We have translated this success into the Syrian Accountability Project, where we have built a conflict map, a crime base matrix, sample indictments so that someday, when a domestic, regional, or international prosecutor is designated, we can hand this package over to them for their consideration to get things started.    So what are my conclusions? The Levant is an unmanageable space. International peace and security cannot be restored using today's outmoded problem-solving techniques. Thus, there are no foreseeable political or military solutions. This is a multifaceted, and I underscore, decades-long struggle. It is truly kaleidoscopic.    Our next step should be to continue to try and contain ISIS. On the periphery, create achievable regional and domestic programs, and I would humbly suggest perhaps that Marshall Plan.    Let's take away the reason for ISIS to be--no hope in the future. We have and can offer better alternatives, such as freedom and a jobs plan, possibly. It is within the realm of possibility to development a justice mechanism outside the U.N. Security Council. The focus should be using regional and domestic arrangements to create those mechanisms. We must not be discouraged. We must be patient and firm in our resolve for accountability, stability, and peace.    A little over 10 years ago, President Charles Taylor never thought that he would be held accountable for his crimes in West Africa, but today, he sits in a maximum security prison in Great Britain for the rest of his life paying the price for aiding and abetting the murder, rape, maiming, and mutilation of over 1.2 million human beings. We can hold ISIS accountable for their crimes and begin to establish some sense of peace in the Levant.    Thank you, Mr. Chairman, for this time. I stand ready to answer any questions.</t>
@@ -715,11 +691,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -739,13 +713,11 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -767,11 +739,9 @@
       <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -791,13 +761,11 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -819,11 +787,9 @@
       <c r="F6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -843,13 +809,11 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -871,11 +835,9 @@
       <c r="F8" t="s">
         <v>11</v>
       </c>
-      <c r="G8" t="s">
-        <v>12</v>
-      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -895,13 +857,11 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -923,11 +883,9 @@
       <c r="F10" t="s">
         <v>11</v>
       </c>
-      <c r="G10" t="s">
-        <v>12</v>
-      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -947,13 +905,11 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" t="s">
-        <v>28</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -975,11 +931,9 @@
       <c r="F12" t="s">
         <v>11</v>
       </c>
-      <c r="G12" t="s">
-        <v>12</v>
-      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -999,13 +953,11 @@
         <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G13" t="s">
-        <v>31</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1027,11 +979,9 @@
       <c r="F14" t="s">
         <v>11</v>
       </c>
-      <c r="G14" t="s">
-        <v>12</v>
-      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1051,13 +1001,11 @@
         <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>18</v>
-      </c>
-      <c r="G15" t="s">
-        <v>34</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1079,11 +1027,9 @@
       <c r="F16" t="s">
         <v>11</v>
       </c>
-      <c r="G16" t="s">
-        <v>12</v>
-      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1103,13 +1049,11 @@
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>18</v>
-      </c>
-      <c r="G17" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1131,11 +1075,9 @@
       <c r="F18" t="s">
         <v>11</v>
       </c>
-      <c r="G18" t="s">
-        <v>12</v>
-      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1155,13 +1097,11 @@
         <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>18</v>
-      </c>
-      <c r="G19" t="s">
-        <v>28</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1183,11 +1123,9 @@
       <c r="F20" t="s">
         <v>11</v>
       </c>
-      <c r="G20" t="s">
-        <v>12</v>
-      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1207,13 +1145,11 @@
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>18</v>
-      </c>
-      <c r="G21" t="s">
-        <v>28</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1235,11 +1171,9 @@
       <c r="F22" t="s">
         <v>11</v>
       </c>
-      <c r="G22" t="s">
-        <v>12</v>
-      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1259,13 +1193,11 @@
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>18</v>
-      </c>
-      <c r="G23" t="s">
-        <v>28</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1287,11 +1219,9 @@
       <c r="F24" t="s">
         <v>11</v>
       </c>
-      <c r="G24" t="s">
-        <v>12</v>
-      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1311,13 +1241,11 @@
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>18</v>
-      </c>
-      <c r="G25" t="s">
-        <v>28</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1339,11 +1267,9 @@
       <c r="F26" t="s">
         <v>11</v>
       </c>
-      <c r="G26" t="s">
-        <v>12</v>
-      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1363,13 +1289,11 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>18</v>
-      </c>
-      <c r="G27" t="s">
-        <v>28</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1391,11 +1315,9 @@
       <c r="F28" t="s">
         <v>11</v>
       </c>
-      <c r="G28" t="s">
-        <v>12</v>
-      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1415,13 +1337,11 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>18</v>
-      </c>
-      <c r="G29" t="s">
-        <v>28</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1443,11 +1363,9 @@
       <c r="F30" t="s">
         <v>11</v>
       </c>
-      <c r="G30" t="s">
-        <v>12</v>
-      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1467,13 +1385,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>18</v>
-      </c>
-      <c r="G31" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1495,11 +1411,9 @@
       <c r="F32" t="s">
         <v>11</v>
       </c>
-      <c r="G32" t="s">
-        <v>12</v>
-      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1519,13 +1433,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>18</v>
-      </c>
-      <c r="G33" t="s">
-        <v>31</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1547,11 +1459,9 @@
       <c r="F34" t="s">
         <v>11</v>
       </c>
-      <c r="G34" t="s">
-        <v>12</v>
-      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1571,13 +1481,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>18</v>
-      </c>
-      <c r="G35" t="s">
-        <v>31</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1597,13 +1505,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>18</v>
-      </c>
-      <c r="G36" t="s">
-        <v>34</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1625,11 +1531,9 @@
       <c r="F37" t="s">
         <v>11</v>
       </c>
-      <c r="G37" t="s">
-        <v>12</v>
-      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1649,13 +1553,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>14</v>
-      </c>
-      <c r="G38" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1675,13 +1577,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>18</v>
-      </c>
-      <c r="G39" t="s">
-        <v>28</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1701,13 +1601,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>14</v>
-      </c>
-      <c r="G40" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1727,13 +1625,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>18</v>
-      </c>
-      <c r="G41" t="s">
-        <v>28</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1753,13 +1649,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>14</v>
-      </c>
-      <c r="G42" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1779,13 +1673,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>18</v>
-      </c>
-      <c r="G43" t="s">
-        <v>28</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1805,13 +1697,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>14</v>
-      </c>
-      <c r="G44" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1831,13 +1721,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>18</v>
-      </c>
-      <c r="G45" t="s">
-        <v>28</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1857,13 +1745,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>14</v>
-      </c>
-      <c r="G46" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1883,13 +1769,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>18</v>
-      </c>
-      <c r="G47" t="s">
-        <v>28</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1909,13 +1793,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>14</v>
-      </c>
-      <c r="G48" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1935,13 +1817,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>18</v>
-      </c>
-      <c r="G49" t="s">
-        <v>34</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1961,13 +1841,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>14</v>
-      </c>
-      <c r="G50" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1987,13 +1865,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>18</v>
-      </c>
-      <c r="G51" t="s">
-        <v>34</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2013,13 +1889,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>14</v>
-      </c>
-      <c r="G52" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2039,13 +1913,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>18</v>
-      </c>
-      <c r="G53" t="s">
-        <v>34</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2065,13 +1937,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>14</v>
-      </c>
-      <c r="G54" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2091,13 +1961,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>18</v>
-      </c>
-      <c r="G55" t="s">
-        <v>34</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2117,13 +1985,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>14</v>
-      </c>
-      <c r="G56" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2143,13 +2009,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>18</v>
-      </c>
-      <c r="G57" t="s">
-        <v>34</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2169,13 +2033,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>14</v>
-      </c>
-      <c r="G58" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2195,13 +2057,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>18</v>
-      </c>
-      <c r="G59" t="s">
-        <v>34</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2221,13 +2081,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>14</v>
-      </c>
-      <c r="G60" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2247,13 +2105,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>18</v>
-      </c>
-      <c r="G61" t="s">
-        <v>34</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2273,13 +2129,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>14</v>
-      </c>
-      <c r="G62" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2299,13 +2153,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>18</v>
-      </c>
-      <c r="G63" t="s">
-        <v>34</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2325,13 +2177,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>14</v>
-      </c>
-      <c r="G64" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2351,13 +2201,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>18</v>
-      </c>
-      <c r="G65" t="s">
-        <v>34</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2377,13 +2225,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>14</v>
-      </c>
-      <c r="G66" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2403,13 +2249,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>18</v>
-      </c>
-      <c r="G67" t="s">
-        <v>34</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2429,13 +2273,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>14</v>
-      </c>
-      <c r="G68" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2455,13 +2297,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>18</v>
-      </c>
-      <c r="G69" t="s">
-        <v>34</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2481,13 +2321,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>14</v>
-      </c>
-      <c r="G70" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2507,13 +2345,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>18</v>
-      </c>
-      <c r="G71" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2533,13 +2369,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>18</v>
-      </c>
-      <c r="G72" t="s">
-        <v>31</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2561,11 +2395,9 @@
       <c r="F73" t="s">
         <v>11</v>
       </c>
-      <c r="G73" t="s">
-        <v>12</v>
-      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2585,13 +2417,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>18</v>
-      </c>
-      <c r="G74" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2613,11 +2443,9 @@
       <c r="F75" t="s">
         <v>11</v>
       </c>
-      <c r="G75" t="s">
-        <v>12</v>
-      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2637,13 +2465,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>18</v>
-      </c>
-      <c r="G76" t="s">
-        <v>28</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2665,11 +2491,9 @@
       <c r="F77" t="s">
         <v>11</v>
       </c>
-      <c r="G77" t="s">
-        <v>12</v>
-      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2689,13 +2513,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>18</v>
-      </c>
-      <c r="G78" t="s">
-        <v>34</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2717,11 +2539,9 @@
       <c r="F79" t="s">
         <v>11</v>
       </c>
-      <c r="G79" t="s">
-        <v>12</v>
-      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2741,13 +2561,11 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>18</v>
-      </c>
-      <c r="G80" t="s">
-        <v>31</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2769,11 +2587,9 @@
       <c r="F81" t="s">
         <v>11</v>
       </c>
-      <c r="G81" t="s">
-        <v>12</v>
-      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2793,13 +2609,11 @@
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>18</v>
-      </c>
-      <c r="G82" t="s">
-        <v>31</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2821,11 +2635,9 @@
       <c r="F83" t="s">
         <v>11</v>
       </c>
-      <c r="G83" t="s">
-        <v>12</v>
-      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2845,13 +2657,11 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>18</v>
-      </c>
-      <c r="G84" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2873,11 +2683,9 @@
       <c r="F85" t="s">
         <v>11</v>
       </c>
-      <c r="G85" t="s">
-        <v>12</v>
-      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2897,13 +2705,11 @@
         <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>18</v>
-      </c>
-      <c r="G86" t="s">
-        <v>28</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2925,11 +2731,9 @@
       <c r="F87" t="s">
         <v>11</v>
       </c>
-      <c r="G87" t="s">
-        <v>12</v>
-      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg20260.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg20260.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="104">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,12 +55,24 @@
     <t>400380</t>
   </si>
   <si>
+    <t>Smith</t>
+  </si>
+  <si>
+    <t>Christopher</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Smith. The subcommittee will come to order, and good afternoon and welcome to everyone. In January 2014, ISIS terrorists captured the city of Fallujah in central Iraq a decade after it had been won at the cost of so much American, Iraqi, and British blood. ISIS moved north, taking more territory, and conducting its genocidal campaign again Christians, Yazidis, and other religious minorities. By early August, Yazidi men, women, and children were trapped on Mount Sinjar facing annihilation when the U.S. initiated airstrikes to save them.    However, beyond that, it soon became clear that the administration had no comprehensive plan to prevent ISIS from continuing to commit genocide, mass atrocities, and war crimes or to roll ISIS back.    This subcommittee, along with the Middle East and North Africa Subcommittee, co-chaired by my good friend and colleague, Ileana Ros-Lehtinen, convened a hearing on the genocide in December 2014 and called for the administration to act before those communities of Christians and others were annihilated.    Meanwhile, across the porous border in Syria, the Assad regime was targeting and killing tens of thousands of civilians. I renewed my call again for a Syrian war crimes tribunal to be established to hold all sides in the conflict of Syria accountable, and we had heard from such great leaders, the former chief prosecutor who will testify today, David Crane, about the importance of taking action in a tribunal that had the flexibility and the capability to really hold people to account on all sides. The world knew that ISIS was committing genocide. Civil society groups, including some present at this hearing today, mobilized, writing letters and holding meetings with the administration, making statements and reporting stories.    As a matter of fact, parenthetically, my first hearing that I held here in this room was more than 3 years ago on the genocide against Christians. Why was there such an indifference on the part of some within the administration?    However, some members of the administration were pushing hard internally for the word ``genocide'' to be publicly spoken and for action to be swiftly taken. Yet the administration still had not acknowledged it and still had no strategy to prevent it from happening. Such was the situation in December 2015 when this subcommittee convened yet another hearing. Shortly after, the Congress passed and the President signed into law the Fiscal Year 2016 appropriations bill, the omnibus bill, which required the Secretary of State to report to Congress with his evaluation on whether ISIS had perpetrated genocide.    Perhaps the most important push outside the government and off the Hill was the 280-page report commissioned by the Knights of Columbus and developed in partnership with the tireless organization In Defense of Christians meticulously documenting the genocide against Christians. That report may have made the difference with the administration, so I am personally grateful to Carl Anderson, the Supreme Knight who is here to testify again, and for the Knights, along with the other groups, including A Demand For Action, that have done so much to ensure that genocide against Christians and others could not be ignored, trivialized, or denied.    The House passed H. Con. Res. 75, authored by my good friend and colleague, Jeff Fortenberry, together with the Syrian War Crimes Tribunal Resolution that I had sponsored, H. Con. Res. 121, 3 days before the Secretary's evaluation was due. Finally, on March 17, Secretary Kerry declared that ISIS is ``responsible for genocide against groups in areas under its control, including Yazidis, Christians, and Shia Muslims.''    Although the administration made the right determination, a long time coming but they did, the question arises now, now what? I already have concerns that historical mistakes are being repeated. Leading up to Secretary of State Colin Powell's historic genocide determination in September 2004--and I was very much a part of pushing for that to happen, along with others like Frank Wolf--the State Department's legal adviser had issued a memorandum that concluded that ``a determination that genocide has occurred in Darfur would have no immediate legal--as opposed to moral, political, or policy--consequences for the United States.''    Secretary Kerry's legal advisers reportedly reached the same conclusion before he made his determination about ISIS. And so it again begs the question, now what?    For years, the administration has been unwilling to effectively address the slaughters in Syria and Iraq. If it still thinks it has no obligation to act, it will likely continue its policy of acting too little too late. I am also concerned that the administration continues to conflate its strategy to combat ISIS with a strategy to protect religious minorities from genocide, war crimes, and mass atrocities. They are not the same. Combatting and defeating ISIS and Islamist extremism, of course, is essential. However, there are many other elements of an effective comprehensive civilian protection strategy, putting effective monitoring and response systems in place, and we have yet to hear them from the administration.    Civilian protection has long been missing from the administration's response to the carnage in Syria. More than half its population, an estimated 13.5 million inside Syria, as of May 2016, plus another 4.8 million registered as refugees abroad, are in need of humanitarian assistance and protection. According to an April 2016 review of the casualty estimates of that conflict, the number of people who have died during Syria's civil war conflict since March 11, 2011, range from 250,000 to 470,000. Notwithstanding the challenges of knowing exactly how many of those people were civilians and exactly how many were killed by the Assad regime and its proxies, we know this: The dictatorship has consistently, deliberately targeted civilians, hospitals, and schools with bombs and bullets and starved entire cities.    While Russia, Iran, and Hezbollah have fueled the fires of death in Syria, the administration has mostly just watched Syria burn. Let me also point out that, in his testimony today--and it is worth really highlighting because others will make similar points--but Carl Anderson makes the point that ``we are reliably informed that official government and U.N. aid does not reach the Christian genocide survivors in Iraq or in Syria.&lt;greek-l&gt;'' deg. &lt;greek-l&gt;`` deg.Repeatedly,'' he goes on to say, ``we hear from church leaders in the region that Christians and other genocide survivors are last in line for assistance from governments. Significantly, the Archdiocese of Erbil, where most Iraqi Christians now live, receives no money from any government whatsoever. If assistance from outside church-affiliated agencies ends in Erbil, Christians there will face a catastrophic humanitarian tragedy within 30 days. The situation is similar in Syria, according to Christian leaders there.''    There is no easy single solution to the threats to religious and ethnic minorities and other civilians in Iraq and Syria. Obstacles clearly abound, including failures to implement the Iraq Constitution, especially the decentralized power and localized governance and security; longstanding unresolved disputes between Iraqi Arabs and Kurds over territory and natural resources; lack of accountability for genocide, mass atrocities, war crimes, torture, kidnappings, displacement, and more by a range of actors; the actions of an indigenously developed, internally supported national reconciliation process; conflicts over revenue sharing, corruption and radicalization.    The list is long, complex, and it must never, however, be an excuse for indifference and inaction. However, unless key issues that preceded the genocide are addressed, the genocide may be perpetuated again, and it certainly is going on right now.    Over the coming weeks, I plan to introduce a comprehensive piece of legislation aimed at contributing to the safety and security of religious and ethnic minorities and civilians more broadly in Iraq and Syria. It will also address the need for accountability for genocide, mass atrocities in those conflicts, and will also again call for a tribunal, like we saw in Sierra Leone, Rwanda, or the former Yugoslavia, and I do hope that the Senate at some point, hopefully soon, takes up our resolution that is pending before the Sentate Committee on Foreign Relations.    I would like to yield to my good friend and colleague, the ranking member, Ms. Bass.</t>
   </si>
   <si>
     <t>412404</t>
   </si>
   <si>
+    <t>Bass</t>
+  </si>
+  <si>
+    <t>Karen</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Bass. Thank you, Mr. Chairman.    Good afternoon to the witnesses.    I look forward to hearing your perspectives regarding these critical issues. As you know, on March 17, 2016, Secretary of State John Kerry declared that ISIS is responsible for genocide against groups in areas under its control, including the Yazidis, Christians, and Shia Muslims. The Secretary went on to chronicle numerous atrocities against various ethnic and religious groups by ISIL over the last few years. The question posed to the witnesses today is a logical result of the determination of genocide, specifically what actions need to be taken by the U.S., the international community, and, frankly, the region, to prevent further genocide.    Secretary Kerry noted in his statement on March 17 that the best response to genocide is a reaffirmation of the fundamental right to survive of every grouped targeted for destruction.    I look forward to hearing from the witnesses today on how that can best be achieved, bearing in mind the ongoing suffering of women, men, and children who live in constant fear.    Thank you, Mr. Chairman.</t>
   </si>
   <si>
@@ -67,34 +82,52 @@
     <t>N/A</t>
   </si>
   <si>
+    <t>Rohrabacher</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Rohrabacher. Thank you very much, Mr. Chairman. When we come to this issue and we look at this, it behooves us to open our hearts and try to come up with a formula that is going to help those people who are who are most in need and people whose lives are most in jeopardy. And, unfortunately--and I am just going to have to say, and I will try not to make this political--but our President has not come to the standard that I believe is adequate to deal with this horrible situation and the challenge that we face in the Middle East. It could be the guy's unable to say ``radical Islamic terrorism,'' even after our Ambassador was slaughtered and murdered in Benghazi, and he hasn't been able to say those words since.    And we have been on him because of that, but that mindset will have implications, and it has implications in the issues that we are talking today. We have innocent people by the hundreds of thousands, if not by the millions, who are in jeopardy of being slaughtered in the same way the Jews were slaughtered during the Holocaust.    And when I look at the figures of the people who are being permitted into this country right now under this administration, the Christians who are the basic target, the most vocalized target of these radical Muslims who are there who are involved with this terrorist activity, the Christians are underrepresented in the number of immigrants in terms of refugees and in terms of people who are actually immigrating from those countries in which they have been targeted for genocide. This is wrong. This is absolutely wrong. It is like sending the Jews back and saying: We are going to have a more open policy because of the Nazis, but the Jews aren't going to be able to come in.    I would hope that we as Americans, both Republicans, Democrats, and this administration and this Congress, recognize we are in a moment now where we are defining ourselves, and we need to make sure that when Christians are under the threat of genocide, that they should have some priority over those other people in those countries that are not targets of genocide. And this isn't some sort of discrimination against Muslims or anybody else or Shiites or anybody else, but let's recognize that that is what is going on and that is what the threat is and deal with the threat and not try to have a debate that is sanitized over here in theory.    So I am very pleased, and I am grateful to Congressman Smith, who, again, has demonstrated his total commitment to human rights of every person on this planet and how he commits himself to these issues.    Chairman Smith, I would suggest that we again, and today we are reaffirming that we hear ISIL when they say that they are going to slaughter all the Christians. We hear them when they make proclamations of genocide against Christians and, yes, Yazidis as well and others as well, but specifically to the Christians and the Yazidis, and that we will then make sure that we mobilize, and we help mobilize the American people, which is what this hearing is all about, to save the Christians from genocide. It is up to us. I don't want future generations to look back on this generation of Americans and say: They closed their ears because they had clinical analysis to do whether or not you could single out one group that is being targeted for genocide for preferential treatment in terms of immigration and refugee status. I don't want to hear that, which resulted in hundreds of thousands or maybe millions of Christians dying in the Middle East.    Let's get serious about this. I appreciate this opportunity to join you, Mr. Chairman, in this very moral effort to make sure our country is practical and is courageous enough to handle this challenge, this moral challenge of our day, to save the people who are being targeted for genocide. Thank you very much.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Smith. Thank you, Chairman Rohrabacher, for your very powerful statement and for your leadership on human rights. I appreciate it. We all do.    I would like to introduce our very distinguished panel beginning with Mr. Carl Anderson, who is Supreme Knight of the Knights of Columbus, where he is chief executive officer and chairman of the board of the world's largest Catholic family fraternal service organization, with over 1.9 million members. Mr. Anderson has had a distinguished career in public service and as an educator as well. From 1983 to 1987, he served in various positions in the Executive Office of the President of the United States, including Special Assistant to the President, and Acting Director of the White House Office of Public Liaison. Following his service in the House, he also served for nearly a decade as a member of the U.S. Commission on Civil Rights.    I will then move on to Mr. Sarhang Hamasaeed, who is a senior program officer for the Middle East and North Africa Programs at the U.S. Institute of Peace. He joined USIP in February 2011. He works on program management, organizational development, monitoring, and evaluation. He also provides political and policy analysis on Iraq to the Institute of Peace and other peacekeeping actors. As Deputy Director General of the Council of Ministers of the Kurdistan Regional Government of Iraq, he managed strategic government modernization initiatives through information technology with the goal of helping to improve governance and service delivery. He has also worked with the Research Triangle Institute International, Kurdistan Save the Children, the Los Angeles Times, and other media organizations.    We will then hear from Mr. Johnny Oram who is the executive director of the Chaldean Assyrian Business Alliance, dedicated to professional and social advancement of communities worldwide. He has been involved in the advocacy for the plight of the Iraqi and Syrian Christians who have been displaced due to the conflict. Additionally, Mr. Oram is involved in advocacy of the rights of the disabled, specifically those with autism spectrum disorder, or ASD. He has served in numerous capacities at the local, State, and Federal levels of government, worked for the Michigan legislature, Hawaii legislature, and in the U.S. Senate.    We will then hear from Ms. Naomi Kikoler, who is the Deputy Director of the Simon-Skjodt Center for the Prevention of Genocide at the United States Holocaust Museum. For 6 years, she developed and implemented the Global Centre for the Responsibility to Protect work on populations at risk and efforts to advance R2P globally and led the Center's advocacy, including targeting the U.N. Security Council. She is also an adjunct professor at the New School University and author of numerous publications previously. She worked on national security and refugee policy for Amnesty International Canada and in the office of the prosecutor of the United Nations International Criminal Tribunal for Rwanda.    We will then hear from Mr. David Crane, who was appointed a Professor of Practice at Syracuse University College of Law in December 2006. He was the founding chief prosecutor of the Special Court for Sierra Leone, an international war crimes tribunal that put many of the worst actors in that terrible, terrible tragedy behind bars. Ultimately, Charles Taylor got 50 years of prison sentence at The Hague because of the great landmark work that Professor Crane did. Professor Crane's mandate was to prosecute those who bore the greatest responsibility committed during the civil war in Sierra Leone in the 1990s. He served for more than 30 years in the Federal Government. He has held numerous key managerial positions and has been dogged in his work to document the atrocities that are occurring in Syria and in the region.    So thank you all for being here. What you convey to us and, by extension, to the Congress, hopefully to the administration, will help provide us with a roadmap going forward. So, Mr. Anderson, please proceed.</t>
   </si>
   <si>
+    <t>Anderson</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Anderson. Well, thank you very much, Mr. Chairman, for the opportunity to appear before the subcommittee today. The House of Representatives, the State Department, and the United States Commission on International Religious Freedom are all to be commended for declaring the situation confronting Christians and other religious minorities in the Middle East to be genocide. As we all know, the world's greatest humanitarian crisis since World War II is unfolding now in the Middle East. In addition to millions of refugees, many of the region's indigenous communities now face extinction. These communities may disappear in less than a decade, but their fate is not inevitable. The United States can avert this unfolding tragedy with a policy that contains, we believe, the following six principles: First, increase aid and ensure that it actually reaches those most in need. We are reliably informed, as the chairman has stated earlier, that official government and U.N. aid does not reach the Christian genocide survivors in Iraq and Syria. Repeatedly we hear from church leaders in the region that Christians and other genocide survivors are last in line for assistance from governments. Significantly the Archdiocese of Erbil, where most Iraqi Christians now live, receives no money from any government whatsoever. If assistance from outside church-affiliated agencies ends in Erbil, Christians there will face a catastrophic humanitarian tragedy within 30 days. And the situation is similar in Syria, according to Christian leaders there.    Those who face genocide are a tiny fraction of the population. They often must avoid official refugee camps because they are targeted for violence there by extremists. As a result, these minorities often do not get official aid, and this will continue to be the reality, unless specific action is taken to bring the aid to where these minorities are forced to reside by continuing violence.    Knights of Columbus and other private sources have responded to this situation, but nongovernmental organizations can only do so much. It is essential, therefore, that government aid is increased and that we ensure it reaches those most in need, even if special emergency appropriations are required to do this.    Second, support the long-term survival in the region of these ancient indigenous religious and ethnic communities. In Iraq, the Christian population has declined by more than 80 percent, and in Syria, it has declined by almost 70 percent. American policy should recognize the important differences in the situations of those fleeing violence and those targeted for genocide, and quite frankly, we should prioritize the latter. Consider this analogy: After World War II, there were approximately 50 million refugees, but only a small fraction were Jews. Yet the world understood that Jews who had survived genocide faced a qualitatively different situation and deserved heightened consideration. The same is true today for the indigenous minorities of the region. They have an indisputable right to live in their country in whatever region of it they wish. Depending on the circumstances, this may mean that they will live where they are originally from or where they find themselves now, but as survivors of an ongoing genocide, they deserve to be prioritized in American policymaking decisions.    Third, punish the perpetrators of genocide and crimes against humanity. The United States should support action by the U.N. Security Council to refer key perpetrators of genocide for prosecution. Equally important, we should support the Iraqi Government and the Kurdish Regional Government's adjudication of the cases of thousands of ISIS fighters and supporters who remain in local detention centers. This will assist in the important work of obtaining and preserving evidence of genocide.    Fourth, we should assist victims of genocide in attaining refugee status. The news report as of last week indicated that of the 499 Syrian refugees admitted to the U.S. in May, not one was explicitly listed as being Christian or as coming from any of the groups targeted for genocide. We must ask, how long will this situation be allowed to continue? The U.S. should appropriate funding and work with the U.N. High Commissioner for Refugees to make provisions for locating and providing status to individuals, such as Yazidis and Christians, that have been targeted for genocide. As I mentioned earlier, many of these genocide survivors fear going into official U.N. refugee camps where they are targeted. Thus, they are overlooked and find it nearly impossible to acquire official refugee status or to immigrate.    Congress should act now. Senator Tom Cotton has introduced the Religious Persecution Relief Act, S. 2708, to provide for overlooked minorities in the prioritization of refugees. We support this bill, and we urge its passage.    Fifth, prepare now for the foreseeable human rights challenges as ISIS--controlled territory is liberated by ensuring that Christians and other minorities have equal rights to decide their future, and obviously, this is going to happen very soon as a result of what is happening in Fallujah and Mosul. We should prepare now for the consequences of the liberation of ISIS-controlled areas. We are likely to see another humanitarian crisis as thousands of civilians flee the fighting or return to their former communities when the fighting ceases.    There has been much debate concerning plans for victims of genocide in Iraq. Some have argued for returning people safely to the Nineveh region; others that they should be allowed to stay in Kurdistan; still others that they should be allowed to immigrate. But these are not necessarily ultimately exclusive competing proposals. People should be allowed to decide their own future, and when they do, we should work to ensure that they are treated with fairness, dignity and equality. This also means that it will be increasingly important to ensure that the property rights and claims of minority groups are respected.    And, finally, sixth, promote the establishment of internationally agreed-upon standards of human rights and religious freedom as conditions for our humanitarian and military assistance. The United States should advocate for full and equal rights for religious and ethnic minorities in the region in exchange for our military and humanitarian aid. A necessary first step to prevent genocide is to overcome the social and legal inequality that is its breeding ground. We should not accept one standard for human rights in the region and another standard for the rest of the world. The rich tapestry of religious pluralism in the region must be preserved now, or it will be lost forever. With its loss will come increasing instability and threats to our own national security and that of the world.    We have a unique opportunity, and some would say a unique responsibility, to protect the victims of genocide. The United States can provide such protection with a policy that includes the principles outlined above.    Mr. Chairman, we thank you very much for your leadership and that of the other members of the committee.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Smith. Mr. Anderson, thank you so very much for your comments, the very tangible support you are providing to the at-risk minorities, especially Christians. And those six points, they are very, very, very well thought out.    I would like to now recognize Mr. Hamasaeed, and thank you for being here and for your testimony.</t>
   </si>
   <si>
+    <t>Hamasaeed</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Hamasaeed. Chairman Smith, Ranking Member Bass, and members of the subcommittee, thank you for the opportunity to testify before you today. I am testifying as a senior program officer of the U.S. Institute of Peace. The views expressed here are my own and do not represent that of the institute. USIP works extensively and closely with Iraqi minorities, specifically religious minorities. We support them by establishing an organization called the Alliance for Iraqi Minorities so that they have the capability to represent themselves, and so, in that vein, a lot of what I mention today is coming from experience directly engaging and trying to help those minorities.    Definitely, the minorities in Iraq need all the support that they can get as well as other communities, nonminority communities, in Iraq.    The dilemma of the religious minorities is not something new. I think it is important to look into some of the history so that we can inform solutions that will, to see if they will work and how do we prepare for those. The reality is that the minorities have, over the past few decades, been caught in between the conflicts and the problems of actors that they were not a part of. They didn't choose those conflicts, but they were affected by those conflicts. And ISIS is not a product, and what they have done is not a product of today. ISIS is a cause of atrocity, but it also is a symptom of failure of governance and the space it has created resulting from the political divisions among the big actors in Iraq and the region.    So it is true that the minorities have suffered probably the most at the hands of ISIS in the sense that they came under attack, for displacement, for genocide, and also chemical attacks against the Turkomans in the Taza district of Kirkuk. The Yazidis have had their women and others taken as sex slaves. The Christians have been labeled, their houses labeled, and they came under specific attack.    Then the question comes: What was the response? The specific question that was addressed to me to talk about was the response of the Government of Iraq and the Kurdistan Regional Government. And to look at this, you can look at this from the perspective of a glass half full or a glass half empty. The reality is that the minorities believe that the Government of Iraq and the Kurdistan Regional Government have not been able to protect them; that they have been displaced, and they have been affected. But it is also true that the Kurdistan Regional Government and the Government of Iraq have provided camps and shelters and provided food and assistance. They were also supported by the Iraqi community--which I think is important--and they have to recognize their efforts in absorbing this crisis and the problems here.    But the reality is that the scope of the problem is well beyond the capacity of one single actor, one single government, or one single community. It requires a collective action. And there is a sense of fatigue for the years of displacement, especially since 2003. The limited capacity of the government and other actors needs to be taken into consideration into what assistance is provided.    I think that there is a need for rethinking the assistance that is given to the minorities and their situation. On protection, the call for protection is not something new. This has been, as you mentioned, Mr. Chairman, there has been a call by the minorities to address this for a long time. And the kind of risk that the minorities are confronted with, they are existential threats that threaten their collective well-being. It is also a direct risk to their security as individuals and communities.    So the risk of revenge, I would like to single out. We talked about the post-return. There is a scenario of protracted displacement, which will be a scenario that we have to deal with. In the 2006, 2007 peak of violence in Iraq, about 1 million people never returned home. And the current 3.3 million people that are displaced, about 1 million of them minorities, they will likely not be able to return for quite some time because of problems that are on the ground, and the revenge is killing and the potential violence coming in those areas is a potential risk to them.    The U.S. Institute of Peace has worked on models that help the return of IDPs and prevent violence. We have done this in the context of Salahuddin and the Speicher massacre that ISIS perpetrated against the Shia cadets and soldiers who were in that camp. We facilitated dialogue among the tribes, and we have been able to mitigate the violence and prevent killing and facilitate the return of IDPs. Tikrit right now has about 150,000 people who have returned since May of last year.    The same kind of effort will be needed in the context of the minorities because there are several layers of conflict that need to be addressed: Risks coming from existential threats like ISIL; then there are risks that will come from competition over scarce resources; and there will be risks coming from just tensions of some of the minorities considering what has happened to them by some of their Arab neighbors. There are minority-minority tensions that need to be addressed. There are Arab minority issues and Kurdish-Kurdish issues that need to be addressed. There is a need for conflict resolution to help them with the long-term viability.    The minorities have the organizations and the capabilities to help themselves. They have been a partner and a voice for the minorities over the years. The Alliance of Iraqi Minorities has worked with the national government and with the Kurdistan Regional Government to pass legislation and make sure their issues have been prioritized. And they could continue to play that role. But at the end of the day, the scope of the need, the magnitude of the problem, will require more than what has been provided to date. I cannot emphasize enough the need for international support for early detection and action on those warning signs that the minorities have been giving us.    It goes without saying that actually solving the bigger problems of Iraq will go a long way in helping the minorities over the long-term to stay safe and not to be attacked. While the minorities will be able to develop the capabilities to provide local security, larger existential threats coming from problems like ISIL, will require the help and the support of the Iraqi Government and the Kurdistan Regional Government and the larger communities around the minorities. So it is important to put emphasis on, how do you rebuild those relationships? How do we put mechanisms in place that will prevent those kinds of attacks?    I think the capacity is limited and the peaceful coexistence is the emphasis that we need to put in as a mechanism. Civil society organizations have been a good vehicle to help the Government of Iraq and the international community. They will need help in both a scenario of return, but also a scenario of protracted displacement, to prevent host community tensions as well.    So, with that, I will stop.    And thank you, Mr. Chairman, and members of the subcommittee. I look forward to your questions.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Smith. Mr. Hamasaeed, I am going to say thank you very much for your testimony, which was very extensive. I have read it, and other members, I am sure, have read it.    Without objection, your and all of the distinguished witnesses' full statements and any information you would like to attach to it will be made a part of the record. So thank you for that testimony.    Mr. Oram.</t>
   </si>
   <si>
+    <t>Oram</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Oram. Thank you very much, Mr. Chairman, members, guests. My name is Johnny Oram. I am the executive director of the Chaldean Assyrian Business Alliance based in Detroit, Michigan. We are an organization that is aimed at fostering professional relationships and also to enhance the betterment of our societies globally, especially at a critical time when the existence of our peoples in our motherland as well as in Syria is being threatened.    Before I go into recommendations for this committee, I would like to talk briefly about our peoples' presence here in the United States. We the Assyrians, Chaldeans, and the Syriacs are the descendants of the original peoples of Abraham. We are the indigenous peoples of Iraq. We are defined by our language, which is Aramaic, the language that the Lord Jesus Christ spoke. Oldest language in the world. We are also defined by our faith. We are a part of the Eastern Rite of the Roman Catholic Church in union with Rome. A good number of our Assyrians are from the Assyrian Church of the East, the Ancient Church of the East, and the Syriac Church, as well as the Presbyterian, and many other denominations.    My people immigrated to the United States in the early 20th century to come to the greatest nation in the history on Earth, a land where they can seek opportunities and be free to profess their faith. They came to communities such as Detroit to seek employment in our automotive plants. They came to the United States not only because of economic opportunities, but they came to the United States because the church and we had communities here that they were attracted to. When you have a church, they will come. And, subsequently, there are schools, which I will elaborate here a little bit later, but that is very important to our communities: The faith and family.    Oftentimes, the Assyrians and the Chaldeans are categorized as Arabs. However, we are not Arabs, but rather, we are in predominantly Arab countries, though many of our people live in Iran and Turkey, which are not Arab countries. Again, we are the indigenous peoples of the land. Nineveh was the capital of Assyria afterall. We have close to 150,000 Chaldeans and Assyrians in the metro Detroit region alone and an additional 200,000 throughout the United States in Chicago, Phoenix, San Diego, San Jose, Turlock, and Modesto. We also have a significant Syriac community in New York and Connecticut.    My people here in the United States have a deep connection and a relationship to our persecuted refugees in Iraq and Syria. And we have welcomed thousands of them who have come to the United States with open arms. We feel for them.    I would like to touch point on the people who want to leave. So I am going to go ahead and kind of emphasize on that here. Seeing as Christians and other minorities are particularly targeted by the Islamic State, it is imperative that they be given special consideration in the search for asylum. This is amplified by the fact that they even face persecution in asylum and shelters in Europe by radicals. Nuri Kino, a world renowned investigative journalist and founder of the grassroots human rights organization A Demand for Action, has been instrumental in uncovering this in Sweden and other places throughout Europe. Our people are being harassed. Our people are being threatened. They are being intimidated. They are being coerced, even in Europe.    The opening of the new processing centers in Erbil and Beirut, where the majority of Christians flee from Iraq and Syria, were positive steps. But the number of people processed must be increased to deal with the overwhelming. As far assimilating into the United States, I think this is a perfect time to have a conversation and to talk about schools like Keys Grace Academy in Madison Heights, Michigan. I alluded to schools. This is a first of its kind in the Nation where they have engaged in Assyrian language immersion and basically preserving our identity and our culture. And the school has also helped kids adjust and integrate into American culture while maintaining their heritage in a meaningful way.    The public education system here in the United States is woefully unprepared to deal with these kids, many of them who have seen severe trauma. But schools, like Keys Grace Academy, which are run by our own Chaldean and Assyrian people, who understand what they have been through, are extremely critical. Furthermore, groups like the Chaldean Community Foundation in Sterling Heights, Michigan--basically it is a suburb of Detroit. This organization has been instrumental in helping Assyrian and Chaldean refugees to assimilate into American society. The foundation processes over 20,000 visitors annually as they help our new arrivals into the metro Detroit region seek employment, health care, assistance, education, moral support, and so on. Our community in metro Detroit is 150,000 strong and growing. As you are all aware, Mr. Chairman, members and guests, my Congressman from Michigan's 11th congressional district, David Trott, offered an amendment to the NDAA, the National Defense Authorization Act, that passed the House on May 17, which is aimed at protecting Christians and other religious minorities throughout the Middle East from the Islamic State-led genocide by establishing a U.N. refugee processing center in Erbil. This requires the United Nations to step up and do its share to protect our vulnerable communities in Iraq, as well as the United Nations.    I also urge the United States Congress to reform the Refugee Act of 1980 by establishing more P-2 and P-3 visas for our refugees and bypassing the U.N.-mandated refugee allotments and quotas. Moreover, this is also going to be important for the refugees in that they can apply directly to admission to the United States of America, rather than be sent off to other lands, such as various designations in Europe and elsewhere, where they have been unwelcome.    Now, I would like to elaborate on the people who want to stay. The reality is that the vast majority of people will not be able or desire to leave. So the particularly important measure will be with those that deal with the situation in Iraq and Syria. In the short term, emergency aid going directly to these organizations on the ground is extremely critical. Aid organizations, like Help Iraq, the Assyrian Aid Society, ACERO, the Syriac Patriarchate, et cetera, have a proven ability to actually get aid to our people. Other organizations, such as my colleague Shachar Zahavi over at IsraAID, Israel's leading humanitarian organization, have been instrumental in providing aid, relief, and medical care for our refugees.    The fact that our people are still being targeted in UNHCR camps by locals, not by U.N. staff, they almost exclusively stop going to these U.N.-run camps and, therefore, critical aid doesn't reach them through traditional channels. Our aid organizations, which I have alluded to earlier, fill in the void as much as possible. But resources are always in dire straits. We have seen some legislative support in the Senate's foreign operations appropriations. But, unfortunately, the legislative support has not translated to enough material support on the ground.    I can't really emphasize how important this is, but we must directly support our indigenous aid organizations on the ground. For example, our own USAID sends funds to the United Nations with the intent of distributing these funds to our communities in Iraq and Syria. The Iraqi and Syrian Christians are not receiving any of these moneys. All this money goes to the UNHCR camps, a place which is unsafe for Christians and Yazidis and other religious minorities. Where is the security apparatus to protect our people in these camps, especially when they are trying to receive critical aid for their very own survival? Supporting local security forces in Iraq and Syria is the best way to ensure a stable environment where people are able to return. After the Islamic State invaded, both the Peshmerga and the Iraqi Army abandoned Christian and Yazidi areas of the Nineveh Plains and Sinjar, leaving the inhabitants defenseless and deeply distrustful of the institutional security apparatus.    Support authorized through the NDAA for the Assyrian, Chaldean, Syriac Christians, and other minorities in Iraq and Syria is crucial in standing up to these forces.    I worked with A Demand For Action on these efforts, and there has been some support realized for Syriac Assyrian forces in Syria, but the forces in Iraq are going to need considerable support. But it is support that they deserve and that they are entitled to and is the only way to gain confidence of the people who have inhabited these lands for thousands of years.    Finally, the creation of a safe haven with international protection which ultimately would be transitional to a province in the Nineveh Plains with the semblance of self-governance and self-security is the only way to regain the trust of the minorities who feel that they were betrayed by the Iraqi Government and the KRG.    These issues affecting our communities in Iraq and Syria are especially addressed in H. Res. 440, a resolution introduced by Congressman David Trott and Congressman Sherman of California, which calls for precise actions that can positively affect the situation on the ground. Marking up that resolution is critical as it would additionally serve as a moral boon to the beleaguered people as it is the first resolution in congressional history to recognize the Simele massacre in 1933, an event where 3,000 Assyrians were massacred under the watch of the Iraqi Government.    I would like to talk on the IDP situation in Turkey. Sixty-seven years ago, right here in Washington, DC, all the signatories to the North Atlantic Treaty Organization, NATO, agreed to the following: The parties to this treaty reaffirm their faith in the purposes and principles of the Charter of the United Nations and their desire to live in peace with all peoples and all governments. They are determined to safeguard the freedom, the common heritage, and the civilization of their peoples, founded on the principles of democracy, individual liberty, and the rule of law. They seek to promote stability and well-being in the North Atlantic area. They are resolved to unite their efforts for collective defense and for the preservation of peace and security.    Mr. Chairman, Members, being a member of NATO requires respecting peoples of all religions and all faiths. Many of our churches in Turkey are being confiscated by President Erdogan and the Council of Ministers in Turkey under this whole guise that they are basically going to reform and revitalize those communities that have been impacted by war, especially in places like Diyarbakir. My very bishop, Francis Kalabat, in Detroit, Michigan, and many Assyrian and Chaldean clergy oftentimes have to travel to Turkey to administer to the faithful there because our faithful basically cannot profess their faith freely.    This is a NATO ally. This is basically a campaign to begin the extermination of Christianity in the Middle East, and that really doesn't bode well for us. This is of extremely vital importance to our national security and to the security of the world. These include Catholics, Protestants, and Orthodox churches that date close to 2,000 years.    Mr. Chairman, I would sincerely request that you and your colleagues move forward existing efforts in Congress to urge the Turkish Government, led by President Erdogan and his Council of Ministers, to immediately return these churches to their rightful owners. This right here is an example of continued persecution and displacement of Christians in the region. Again, Turkey is supposed to be our ally, but they are not being a good actor in the situation. These actions clearly undermine the very agreement that the Turkish Government signed to become a member of NATO in 1952.    We, the United States of America, have a moral and fundamental obligation. We need to step up as leaders of the free world and help the thousands of Christians and other religious minorities escape displacement and death, give them hope when they have lost hope, and to reassure them that they have a place that they can come to if they so choose where they can be a part of a nation and contribute to our economy and our society.    As I have mentioned earlier, we have the resources to absorb them. This is the right thing to do. Thank you very much, Mr. Chairman. May God bless you and God bless America.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Smith. Thank you so much, Mr. Oram, for your testimony and recommendations and insights.    I would like to now recognize Ms. Naomi Kikoler, and thank you for being here.</t>
   </si>
   <si>
+    <t>Kikoler</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Kikoler. Thank you, Chairman Smith and Ranking Member Bass, for holding a hearing on this important issue and for the opportunity to testify. I ask that you include in the record the text of the Holocaust Memorial Museum's report issued last November, entitled ``Our Generation is Gone: The Islamic State's Targeting of Iraqi Minorities in Ninewa.''    Last month, I was sitting with a Yazidi woman in a displaced persons camp outside of Dohuk in the Kurdistan region of Iraq. She was kidnapped by Islamic State fighters in the village of Kocho during an attack where hundreds of Yazidi men were killed. When I met her, she, along with her two young children, had escaped her Islamic State captor in Syria only 2 weeks earlier. She had been forcibly converted to Islam, and for almost 2 years, she was held as a sex slave. She and her children are the face of a modern day genocide that is being perpetrated by the Islamic State. For those still being held today, that genocide is ongoing.    The administration's determination that this self-proclaimed Islamic State committed genocide and crimes against humanity against religious minorities is an important recognition of the heinous crimes committed by the Islamic State and the suffering of victims like the woman I met and her children.    However, if the label of genocide is truly to have meaning for the victims of that crime, then this discussion should evolve from a question of what happened to how to protect vulnerable communities, using military and nonmilitary tools, from future threats by the Islamic State and other extremist groups. This includes how to secure justice and accountability for the victims of their crimes.    Genocide is a rare occurrence. There is no blueprint for how the United States Government responds in situations where genocide has been committed or is taking place. With this in mind, we at the Simon-Skjodt Center for the Prevention of Genocide traveled last month to the Kurdistan region of Iraq and to newly liberated areas by Mount Sinjar to assess what needs to be done to protect vulnerable minorities as a followup to the report released in November 2015 documenting the commission of genocide, crimes against humanity, and ethnic cleansing committed by the Islamic State against minorities.    Our trip starkly revealed that these communities remain at risk of future atrocities. Those who stay in exile in the Kurdistan region of Iraq are physically safe, yet they yearn to return home. As long as the Islamic State exists, these communities will remain vulnerable. The Islamic State still occupies large swaths of land in Nineveh, making it impossible for minority communities to return home.    Certain liberated areas are also too dangerous for civilians to return home as they are within the range of ISIS mortar fire. This is particularly true for communities on the south side of Mount Sinjar and those close to Mosul.    Defeating the Islamic State, therefore, should remain a key priority of the U.S. Government's efforts if our hope is to ensure the very survival of these communities. Yet to animate this objective, civilian protection and the prevention of atrocity should be at the core of that strategy. We know from past cases that this requires a comprehensive and sustained strategy using military and nonmilitary tools that is calibrated to respond to evolving conditions on the ground to prevent genocide and other mass atrocities. In this context, a strategy would include day-after planning to identify scenarios and tools that would mitigate potential future flashpoints and implement strategies to address them, including rebuilding liberated areas, promoting reconciliation between groups, advancing justice and accountability efforts, and securing a political resolution between the Government of Iraq and the Kurdish Regional Government to the disputed areas in which many of Iraq's minorities live.    The most common sentiment that we heard from displaced minority communities and one that needs to be addressed is their lack of trust in the officials and institutions that are responsible for their physical protection and for guaranteeing their legal rights, as well as their deep distrust of their former Sunni Arab neighbors who they perceive as having been complicit in ISIS' attacks.    Religious minorities continue to feel that the Iraqi security forces and the Kurdish Peshmerga abandoned them when the Islamic State attacked Nineveh. Many also continue to feel that they are being used as political pawns by the Government of Iraq and the Kurdish Regional Government in the ongoing contest over the disputed areas. This leaves them nervous about who and how their land will be administered should they return home.    For over 10 years, religious minorities were targeted on the basis of their identity by extremist groups and were politically marginalized. The early warning of their vulnerabilities went largely unheeded, and as a result, many saw fleeing the country as their only protection option. Today, in the absence of what they, again, see as being credible actors to provide their physical protection, many communities are seeking to arm themselves. New threats are also emerging for not just religious minorities but also for the Sunni Arab population who may be the victims of revenge killings. The proliferation of unregulated and poorly trained militias may pose additional threats to civilians in areas liberated from the Islamic State as they seek to liberate additional territory. Many that we interviewed expressed concerns about the potential for conflict between militias within particular religious communities and amongst religious groups.    This all underscores that defeating the Islamic State and protecting vulnerable communities requires more than just a military strategy if civilians are to be protected. It requires tackling the root causes that allowed the Islamic State to rise and that enhance the vulnerabilities of minority communities.    In light of this, we believe that there are four principle areas where additional efforts could be paid to ensure both the immediate protection needs of vulnerable communities seeking to return home and ensure that the long-term and systematic drivers of conflict are mitigated.    Those are, first, an explicit policy to provide genuine physical protection to vulnerable populations. Protection could include strategies for employing local, domestic, and international actors to provide security to ethnic and religious minorities returning to liberated lands and Sunni Arab populations at risk of reprisal killings.    In planning military operations and broader policy objectives, actors should consider the possible unintended consequences of the actions taken and whether they will heighten risks for civilian populations living under the Islamic State's control and/or might contribute to future cycles of violence.    The Iraqi Government and international donors should ensure that all Iraqi security forces, Iraqi Kurdish Peshmerga, and local militias fully adhere to international human rights and humanitarian law standards and are held accountable for violations in accordance with international standards. Withholding military assistance to those groups who do not adhere to these standards could be a powerful tool in addressing the behavior of bad actors.    Second is support for stabilization and reconstruction efforts in liberated areas. This includes increasing the presence of development assistance from relevant agencies and departments. Many of the displaced expressed concerns to us that they will be unable to return home in the absence of economic opportunity and the reconstruction of their devastated region. High rates of unemployment within the Sunni population and perceived economic inequity was one of drivers of the rise of the Islamic State. Affected regions must be rebuilt and the engagement of the international community must be sustained in that endeavor in the years to come.    A critical component of stabilization and reconstruction efforts is investing in reconciliation so that diverse communities can once again live alongside each other. In the absence of such efforts, there is a grave potential for future conflict between communities.    Third, transitional justice efforts are central to responding to the commission of past crimes and the deterrence of future crimes. The clearest obligation in the Convention on the Prevention and Punishment of the Crime of Genocide is to punish the perpetrators of genocide, and international justice is the cornerstone upon which the international community has responded to the crime of genocide, from Nuremberg 70 years ago to the international criminal tribunals for Rwanda, Yugoslavia, and Cambodia.    Today, substantial support is needed to investigate, collect, and analyze evidence; secure mass grave sites; and detain perpetrators for the purpose of future prosecution. In this effort, we can't lose sight of the importance of holding individuals accountable for crimes committed at the local level.    The most common answer to the question of how can trust be built between minorities and the Sunni Arab population that we pose to people who are displaced was that those who committed crimes in their towns and villages needed to be held accountable in a court. The rampant culture of impunity has left high levels of distrust amongst ordinary Iraqis. They need to see justice advanced not only against the Islamic State's leaders for genocide but also for the crimes committed by their neighbors in their very own communities. This necessitates detaining fighters, investigating their crimes, and then prosecuting them at the national as well as possibly the international level.    Fourth is securing the political resolution to the ongoing dispute between the Kurdish Regional Government and the Iraqi Government over Nineveh. Our report was very clear in identifying the ongoing dispute as a key factor that exacerbated the vulnerability of minority communities in part because the dispute is perceived as having contributed to growing support for extremist groups, and when the Islamic State advanced, there were no clear lines of responsibility. As long as responsibility for protecting these communities remains in question, vulnerabilities will remain acute and create a vacuum that the Islamic State or a successor group could exploit.    Finally, to recognize a genocide has happened is to acknowledge a collective failure to prevent the crime of all crimes and to uphold the commitment to never again. Going forward, the U.S. and other governments will need to place civilian protection and the prevention of atrocities at the core of their counter-ISIL strategies, but the commitment to prevent and protect minorities must extend beyond the current threat posed by the Islamic State. We must endeavor to ensure that in 10 years, we are not yet again meeting in the wake of another failure to protect vulnerable minorities in Iraq and Syria.    Countering the Islamic State and preventing future atrocities perpetrated by other groups necessitates an ongoing assessment of those groups' motivations, organization, and capabilities for committing atrocity crimes, and of the vulnerabilities of at-risk communities. Continuous monitoring and analysis of the warning signs and risk indicators on the ground will be needed and strategies developed to ensure that threats facing minorities in the future are mitigated.    That is what upholding the commitment to prevent, enshrined in the Genocide Convention, should mean. Thank you.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Smith. Thank you so very much for your testimony and for reminding us of what the face of genocide is with your experience with the young woman and her two children. As you pointed out, she was forcibly converted to Islam. For almost 2 years, she was held as a sex slave. That is just numbing in how awful and horrific that reality has been, so thankfully you were there, and now you have conveyed that message to all of us. And that should be fresh impetus for all of us to do even more.    I would like to now yield to Mr. Crane, a former chief prosecutor of the Special Court for Sierra Leone.</t>
+  </si>
+  <si>
+    <t>Crane</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Crane. Thank you, Mr. Chairman.    I want to thank the subcommittee, its staff and, in particular, its chairman for its decades-long fight against the atrocities committed by state and nonstate actors around the world. In fact, you and I have been working together since 2002, along with many members of this committee, in seeking justice for the oppressed.    We are in an age of extremes with adversaries never contemplated facing challenges that are most likely not solvable. The 21st century is shaping up to be no better than what I call the bloody 20th century, where over 225 million people died of nonnatural causes, over 100 million of which that I estimate at the hands of their own governments.    In the 21st century, conflict will be kaleidoscopic and dirty, with one or all sides ignoring international law. Our current planning in the United States and preparation cycle make us incapable of dealing with these kaleidoscopic conflicts and events, and I am working with the International Peace and Security Institute to quantify that data.    Despite this, we have seen the evolution of modern international criminal law, which has now given us the practical and legal capability of holding dictators, thugs, and their henchmen accountable for atrocity if there is a political will to do so. I underscore ``if there is a political will to do so.'' If we do have that political will, we have the experience now to prosecute those who feed on their own peoples.    Now, we have mentioned many numbers this afternoon related to casualties: 300,000 persons killed, over 10 million refugees moving about the region with no hope and no homes. But I do want to underscore that these are about human beings, individual human beings. When I was in Sierra Leone, I would hold townhall meetings, and I was in Makeni, the headquarters of the infamous Revolutionary United Front, who cut hands off of victims and other body parts. And as I was holding this townhall meeting, a young child soldier stood up. He was about 12, and he looked at me in the eye, and he began to weep, and he said: I killed people. I am sorry. I didn't mean it.    And as I was holding him in my arms as he wept, a young woman stood up 10 feet from me, most of her face was missing because it had been put in a pot of boiling water. She was holding her child, and she, through cracked lips, said: Seek justice.    That is why we do this. And that is why I want to underscore in my remarks today that we don't forget that it is individual human beings, one person at a time.    There has been a complete breakdown of the rule of law and accountability in the Levant. The laws of armed conflict are ignored, resulting in mounting civilian casualties. There is an increased use of banned weapons systems, such as barrel bombs and chemical weapons, along with the increase in various torture and execution methods not seen since the Dark Ages. The Caesar Report, which I coauthored and which we testified a year or so ago, found direct and clear and convincing evidence of this horror.    In the Levant region, there are three international crimes that are being committed. They have been highlighted in this testimony and are well-known by this subcommittee: War crimes, crimes against humanity, and possibly genocide. I want to underscore and caution that we have to be very careful that politicians and diplomats tend to rank or tier international crimes and holding out genocide as the top tier.    Well, I would just submit respectfully to this subcommittee that 300,000 people killed as a result of an international crime don't care whether it is a genocide, crime against humanity, or war crime. So I want to caution our use of terms. They are important, but they are crimes, and I also want to point out, of these three crimes, one is a specific intent crime, which means that you have to have a specific intent to destroy in whole or in part a peoples.    It is a difficult crime to prove, and in some cases, you almost need a smoking gun, so I would just caution this subcommittee, when they are considering the war crimes, watch out for tiering and ranking the crimes, as well as understanding that genocide, even though a very serious crime indeed, a crime of crimes, is a difficult and very specific type of crime, which at the legal level, has to be clearly or beyond a reasonable doubt proven each and every element.    So what is next then? You asked me that question. First, there must be a realization that the ISIS phenomenon is a decades-long challenge. We are entering into an effort that is of cold war ramifications.    At this time, we do not have a solution for this challenge. Until we do have a realistic and practical solution, we must understand that we may not be able to restore international peace and security, only manage some sense of security in the Levant. The conflict there truly is kaleidoscopic in nature, where if one thing changes, everything changes. We cannot predict or plan what happens next.    The cornerstone to a possible beginning of a solution is Arab resolve and cooperation. However, this may not be possible given political realities. The West cannot be seen as an interloper, only as a patient enabler and a facilitator. We can't be seen as launching the seventh crusade, so to speak.    Over the next several years, you must contain the ISIS threat regionally, stamp out ISIS' attempts to further their cause elsewhere and focus on achievable programs in the region locally and domestically, and I would underscore some of the important points made by my colleagues this afternoon.    I just would like to say a young man or woman who has a job and some hope for a better future is less likely to turn to terror and to ISIS. Essentially, what I am saying is that we cannot defeat ISIS using kinetic energy alone. In reality, it can only be done through economic revitalization, almost a Marshall Plan for the Middle East. It is that kind of commitment.    Additionally, we can take realistic steps to start an accountability mechanism for the region, particularly as it relates to ISIS atrocities. If we have the political will, we can establish some tried and true methods. We should start with a truth commission, not a reconciliation commission at this point, but start with a truth commission. Let's get something started. Let's get something going.    We also have the ability and the experience to set up a domestic court or an internationalized domestic court, even a hybrid regional court, which we did in the Special Court for Sierra Leone. The International Criminal Court, though an important and permanent entity, is politically, unfortunately, neutralized by the United Nations Security Council and, unfortunately, will not play a major part in this effort, even though we need to recognize that they do have a potential place. The practical reality is, a domestic court, an internationalized domestic court, or hybrid regional court supported by regional countries, countries in the region, is the most practical and realistic opportunity.    Now, these mechanisms can be headquartered in Iraq, Turkey, or Jordan, supported by members of the Arab League. The international community could assist and train commission or court personnel as requested and needed. The idea is having Arab states prosecuting Arabs for crimes against Arab peoples in violation of Arab laws.    Now, we have done this before with the Special Court for Sierra Leone. We have moved into an area, worked with peoples, developed methodologies, efficiently managed justice mechanisms and broad accountability to millions of victims there in West Africa. We have translated this success into the Syrian Accountability Project, where we have built a conflict map, a crime base matrix, sample indictments so that someday, when a domestic, regional, or international prosecutor is designated, we can hand this package over to them for their consideration to get things started.    So what are my conclusions? The Levant is an unmanageable space. International peace and security cannot be restored using today's outmoded problem-solving techniques. Thus, there are no foreseeable political or military solutions. This is a multifaceted, and I underscore, decades-long struggle. It is truly kaleidoscopic.    Our next step should be to continue to try and contain ISIS. On the periphery, create achievable regional and domestic programs, and I would humbly suggest perhaps that Marshall Plan.    Let's take away the reason for ISIS to be--no hope in the future. We have and can offer better alternatives, such as freedom and a jobs plan, possibly. It is within the realm of possibility to development a justice mechanism outside the U.N. Security Council. The focus should be using regional and domestic arrangements to create those mechanisms. We must not be discouraged. We must be patient and firm in our resolve for accountability, stability, and peace.    A little over 10 years ago, President Charles Taylor never thought that he would be held accountable for his crimes in West Africa, but today, he sits in a maximum security prison in Great Britain for the rest of his life paying the price for aiding and abetting the murder, rape, maiming, and mutilation of over 1.2 million human beings. We can hold ISIS accountable for their crimes and begin to establish some sense of peace in the Levant.    Thank you, Mr. Chairman, for this time. I stand ready to answer any questions.</t>
@@ -641,7 +674,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H87"/>
+  <dimension ref="A1:I87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -649,7 +682,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -671,2069 +704,2418 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
       <c r="H3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
       <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" t="s"/>
-      <c r="H5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" t="s"/>
+      <c r="I5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
       <c r="H6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" t="s"/>
-      <c r="H7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" t="s"/>
+      <c r="I7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
       <c r="H8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>16</v>
-      </c>
-      <c r="G9" t="s"/>
-      <c r="H9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G9" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9" t="s"/>
+      <c r="I9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G10" t="s">
+        <v>13</v>
+      </c>
       <c r="H10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>16</v>
-      </c>
-      <c r="G11" t="s"/>
-      <c r="H11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H11" t="s"/>
+      <c r="I11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G12" t="s">
+        <v>13</v>
+      </c>
       <c r="H12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>16</v>
-      </c>
-      <c r="G13" t="s"/>
-      <c r="H13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G13" t="s">
+        <v>34</v>
+      </c>
+      <c r="H13" t="s"/>
+      <c r="I13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G14" t="s">
+        <v>13</v>
+      </c>
       <c r="H14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>16</v>
-      </c>
-      <c r="G15" t="s"/>
-      <c r="H15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G15" t="s">
+        <v>37</v>
+      </c>
+      <c r="H15" t="s"/>
+      <c r="I15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G16" t="s">
+        <v>13</v>
+      </c>
       <c r="H16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>16</v>
-      </c>
-      <c r="G17" t="s"/>
-      <c r="H17" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G17" t="s">
+        <v>25</v>
+      </c>
+      <c r="H17" t="s"/>
+      <c r="I17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G18" t="s">
+        <v>13</v>
+      </c>
       <c r="H18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>16</v>
-      </c>
-      <c r="G19" t="s"/>
-      <c r="H19" t="s">
+        <v>21</v>
+      </c>
+      <c r="G19" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="H19" t="s"/>
+      <c r="I19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G20" t="s">
+        <v>13</v>
+      </c>
       <c r="H20" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>16</v>
-      </c>
-      <c r="G21" t="s"/>
-      <c r="H21" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G21" t="s">
+        <v>31</v>
+      </c>
+      <c r="H21" t="s"/>
+      <c r="I21" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>11</v>
-      </c>
-      <c r="G22" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G22" t="s">
+        <v>13</v>
+      </c>
       <c r="H22" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>16</v>
-      </c>
-      <c r="G23" t="s"/>
-      <c r="H23" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G23" t="s">
+        <v>31</v>
+      </c>
+      <c r="H23" t="s"/>
+      <c r="I23" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>11</v>
-      </c>
-      <c r="G24" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G24" t="s">
+        <v>13</v>
+      </c>
       <c r="H24" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>16</v>
-      </c>
-      <c r="G25" t="s"/>
-      <c r="H25" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G25" t="s">
+        <v>31</v>
+      </c>
+      <c r="H25" t="s"/>
+      <c r="I25" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>11</v>
-      </c>
-      <c r="G26" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G26" t="s">
+        <v>13</v>
+      </c>
       <c r="H26" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I26" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>16</v>
-      </c>
-      <c r="G27" t="s"/>
-      <c r="H27" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G27" t="s">
+        <v>31</v>
+      </c>
+      <c r="H27" t="s"/>
+      <c r="I27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>11</v>
-      </c>
-      <c r="G28" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G28" t="s">
+        <v>13</v>
+      </c>
       <c r="H28" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I28" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>16</v>
-      </c>
-      <c r="G29" t="s"/>
-      <c r="H29" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G29" t="s">
+        <v>31</v>
+      </c>
+      <c r="H29" t="s"/>
+      <c r="I29" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>11</v>
-      </c>
-      <c r="G30" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G30" t="s">
+        <v>13</v>
+      </c>
       <c r="H30" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I30" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>16</v>
-      </c>
-      <c r="G31" t="s"/>
-      <c r="H31" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G31" t="s">
+        <v>28</v>
+      </c>
+      <c r="H31" t="s"/>
+      <c r="I31" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>11</v>
-      </c>
-      <c r="G32" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G32" t="s">
+        <v>13</v>
+      </c>
       <c r="H32" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I32" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>16</v>
-      </c>
-      <c r="G33" t="s"/>
-      <c r="H33" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G33" t="s">
+        <v>34</v>
+      </c>
+      <c r="H33" t="s"/>
+      <c r="I33" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>11</v>
-      </c>
-      <c r="G34" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G34" t="s">
+        <v>13</v>
+      </c>
       <c r="H34" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I34" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>16</v>
-      </c>
-      <c r="G35" t="s"/>
-      <c r="H35" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G35" t="s">
+        <v>34</v>
+      </c>
+      <c r="H35" t="s"/>
+      <c r="I35" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>16</v>
-      </c>
-      <c r="G36" t="s"/>
-      <c r="H36" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G36" t="s">
+        <v>37</v>
+      </c>
+      <c r="H36" t="s"/>
+      <c r="I36" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>11</v>
-      </c>
-      <c r="G37" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G37" t="s">
+        <v>13</v>
+      </c>
       <c r="H37" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I37" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>13</v>
-      </c>
-      <c r="G38" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G38" t="s">
+        <v>17</v>
+      </c>
       <c r="H38" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I38" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>16</v>
-      </c>
-      <c r="G39" t="s"/>
-      <c r="H39" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G39" t="s">
+        <v>31</v>
+      </c>
+      <c r="H39" t="s"/>
+      <c r="I39" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>13</v>
-      </c>
-      <c r="G40" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G40" t="s">
+        <v>17</v>
+      </c>
       <c r="H40" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I40" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>16</v>
-      </c>
-      <c r="G41" t="s"/>
-      <c r="H41" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G41" t="s">
+        <v>31</v>
+      </c>
+      <c r="H41" t="s"/>
+      <c r="I41" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>13</v>
-      </c>
-      <c r="G42" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G42" t="s">
+        <v>17</v>
+      </c>
       <c r="H42" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I42" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>16</v>
-      </c>
-      <c r="G43" t="s"/>
-      <c r="H43" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G43" t="s">
+        <v>31</v>
+      </c>
+      <c r="H43" t="s"/>
+      <c r="I43" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>13</v>
-      </c>
-      <c r="G44" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G44" t="s">
+        <v>17</v>
+      </c>
       <c r="H44" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I44" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>16</v>
-      </c>
-      <c r="G45" t="s"/>
-      <c r="H45" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G45" t="s">
+        <v>31</v>
+      </c>
+      <c r="H45" t="s"/>
+      <c r="I45" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>13</v>
-      </c>
-      <c r="G46" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G46" t="s">
+        <v>17</v>
+      </c>
       <c r="H46" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I46" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>16</v>
-      </c>
-      <c r="G47" t="s"/>
-      <c r="H47" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G47" t="s">
+        <v>31</v>
+      </c>
+      <c r="H47" t="s"/>
+      <c r="I47" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>13</v>
-      </c>
-      <c r="G48" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G48" t="s">
+        <v>17</v>
+      </c>
       <c r="H48" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I48" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>16</v>
-      </c>
-      <c r="G49" t="s"/>
-      <c r="H49" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G49" t="s">
+        <v>37</v>
+      </c>
+      <c r="H49" t="s"/>
+      <c r="I49" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>13</v>
-      </c>
-      <c r="G50" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G50" t="s">
+        <v>17</v>
+      </c>
       <c r="H50" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I50" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>16</v>
-      </c>
-      <c r="G51" t="s"/>
-      <c r="H51" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G51" t="s">
+        <v>37</v>
+      </c>
+      <c r="H51" t="s"/>
+      <c r="I51" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>13</v>
-      </c>
-      <c r="G52" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G52" t="s">
+        <v>17</v>
+      </c>
       <c r="H52" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I52" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>16</v>
-      </c>
-      <c r="G53" t="s"/>
-      <c r="H53" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G53" t="s">
+        <v>37</v>
+      </c>
+      <c r="H53" t="s"/>
+      <c r="I53" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>13</v>
-      </c>
-      <c r="G54" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G54" t="s">
+        <v>17</v>
+      </c>
       <c r="H54" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I54" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>16</v>
-      </c>
-      <c r="G55" t="s"/>
-      <c r="H55" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G55" t="s">
+        <v>37</v>
+      </c>
+      <c r="H55" t="s"/>
+      <c r="I55" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>13</v>
-      </c>
-      <c r="G56" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G56" t="s">
+        <v>17</v>
+      </c>
       <c r="H56" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I56" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>16</v>
-      </c>
-      <c r="G57" t="s"/>
-      <c r="H57" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G57" t="s">
+        <v>37</v>
+      </c>
+      <c r="H57" t="s"/>
+      <c r="I57" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>13</v>
-      </c>
-      <c r="G58" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G58" t="s">
+        <v>17</v>
+      </c>
       <c r="H58" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I58" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>16</v>
-      </c>
-      <c r="G59" t="s"/>
-      <c r="H59" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G59" t="s">
+        <v>37</v>
+      </c>
+      <c r="H59" t="s"/>
+      <c r="I59" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>13</v>
-      </c>
-      <c r="G60" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G60" t="s">
+        <v>17</v>
+      </c>
       <c r="H60" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I60" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>16</v>
-      </c>
-      <c r="G61" t="s"/>
-      <c r="H61" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G61" t="s">
+        <v>37</v>
+      </c>
+      <c r="H61" t="s"/>
+      <c r="I61" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F62" t="s">
-        <v>13</v>
-      </c>
-      <c r="G62" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G62" t="s">
+        <v>17</v>
+      </c>
       <c r="H62" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I62" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F63" t="s">
-        <v>16</v>
-      </c>
-      <c r="G63" t="s"/>
-      <c r="H63" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G63" t="s">
+        <v>37</v>
+      </c>
+      <c r="H63" t="s"/>
+      <c r="I63" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>13</v>
-      </c>
-      <c r="G64" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G64" t="s">
+        <v>17</v>
+      </c>
       <c r="H64" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I64" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>16</v>
-      </c>
-      <c r="G65" t="s"/>
-      <c r="H65" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G65" t="s">
+        <v>37</v>
+      </c>
+      <c r="H65" t="s"/>
+      <c r="I65" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>13</v>
-      </c>
-      <c r="G66" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G66" t="s">
+        <v>17</v>
+      </c>
       <c r="H66" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I66" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>16</v>
-      </c>
-      <c r="G67" t="s"/>
-      <c r="H67" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G67" t="s">
+        <v>37</v>
+      </c>
+      <c r="H67" t="s"/>
+      <c r="I67" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>13</v>
-      </c>
-      <c r="G68" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G68" t="s">
+        <v>17</v>
+      </c>
       <c r="H68" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I68" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>16</v>
-      </c>
-      <c r="G69" t="s"/>
-      <c r="H69" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G69" t="s">
+        <v>37</v>
+      </c>
+      <c r="H69" t="s"/>
+      <c r="I69" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>13</v>
-      </c>
-      <c r="G70" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G70" t="s">
+        <v>17</v>
+      </c>
       <c r="H70" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I70" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>16</v>
-      </c>
-      <c r="G71" t="s"/>
-      <c r="H71" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G71" t="s">
+        <v>28</v>
+      </c>
+      <c r="H71" t="s"/>
+      <c r="I71" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>16</v>
-      </c>
-      <c r="G72" t="s"/>
-      <c r="H72" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G72" t="s">
+        <v>34</v>
+      </c>
+      <c r="H72" t="s"/>
+      <c r="I72" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>11</v>
-      </c>
-      <c r="G73" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G73" t="s">
+        <v>13</v>
+      </c>
       <c r="H73" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I73" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>16</v>
-      </c>
-      <c r="G74" t="s"/>
-      <c r="H74" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G74" t="s">
+        <v>25</v>
+      </c>
+      <c r="H74" t="s"/>
+      <c r="I74" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>11</v>
-      </c>
-      <c r="G75" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G75" t="s">
+        <v>13</v>
+      </c>
       <c r="H75" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I75" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F76" t="s">
-        <v>16</v>
-      </c>
-      <c r="G76" t="s"/>
-      <c r="H76" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G76" t="s">
+        <v>31</v>
+      </c>
+      <c r="H76" t="s"/>
+      <c r="I76" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F77" t="s">
-        <v>11</v>
-      </c>
-      <c r="G77" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G77" t="s">
+        <v>13</v>
+      </c>
       <c r="H77" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I77" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F78" t="s">
-        <v>16</v>
-      </c>
-      <c r="G78" t="s"/>
-      <c r="H78" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G78" t="s">
+        <v>37</v>
+      </c>
+      <c r="H78" t="s"/>
+      <c r="I78" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F79" t="s">
-        <v>11</v>
-      </c>
-      <c r="G79" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G79" t="s">
+        <v>13</v>
+      </c>
       <c r="H79" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I79" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F80" t="s">
-        <v>16</v>
-      </c>
-      <c r="G80" t="s"/>
-      <c r="H80" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G80" t="s">
+        <v>34</v>
+      </c>
+      <c r="H80" t="s"/>
+      <c r="I80" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F81" t="s">
-        <v>11</v>
-      </c>
-      <c r="G81" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G81" t="s">
+        <v>13</v>
+      </c>
       <c r="H81" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I81" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F82" t="s">
-        <v>16</v>
-      </c>
-      <c r="G82" t="s"/>
-      <c r="H82" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G82" t="s">
+        <v>34</v>
+      </c>
+      <c r="H82" t="s"/>
+      <c r="I82" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F83" t="s">
-        <v>11</v>
-      </c>
-      <c r="G83" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G83" t="s">
+        <v>13</v>
+      </c>
       <c r="H83" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I83" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F84" t="s">
-        <v>16</v>
-      </c>
-      <c r="G84" t="s"/>
-      <c r="H84" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G84" t="s">
+        <v>28</v>
+      </c>
+      <c r="H84" t="s"/>
+      <c r="I84" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F85" t="s">
-        <v>11</v>
-      </c>
-      <c r="G85" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G85" t="s">
+        <v>13</v>
+      </c>
       <c r="H85" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I85" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F86" t="s">
-        <v>16</v>
-      </c>
-      <c r="G86" t="s"/>
-      <c r="H86" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G86" t="s">
+        <v>31</v>
+      </c>
+      <c r="H86" t="s"/>
+      <c r="I86" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F87" t="s">
-        <v>11</v>
-      </c>
-      <c r="G87" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G87" t="s">
+        <v>13</v>
+      </c>
       <c r="H87" t="s">
-        <v>92</v>
+        <v>14</v>
+      </c>
+      <c r="I87" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg20260.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg20260.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="107">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
     <t>400380</t>
   </si>
   <si>
+    <t>Chair</t>
+  </si>
+  <si>
     <t>Smith</t>
   </si>
   <si>
@@ -65,6 +71,9 @@
   </si>
   <si>
     <t>412404</t>
+  </si>
+  <si>
+    <t>Ranking Member</t>
   </si>
   <si>
     <t>Bass</t>
@@ -674,7 +683,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I87"/>
+  <dimension ref="A1:J87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -682,7 +691,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -707,2415 +716,2592 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" t="s"/>
-      <c r="I5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G5" t="s"/>
+      <c r="H5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" t="s"/>
+      <c r="J5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" t="s">
-        <v>25</v>
-      </c>
-      <c r="H7" t="s"/>
-      <c r="I7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G7" t="s"/>
+      <c r="H7" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" t="s"/>
+      <c r="J7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" t="s">
-        <v>28</v>
-      </c>
-      <c r="H9" t="s"/>
-      <c r="I9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G9" t="s"/>
+      <c r="H9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I9" t="s"/>
+      <c r="J9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" t="s"/>
+      <c r="H11" t="s">
+        <v>34</v>
+      </c>
+      <c r="I11" t="s"/>
+      <c r="J11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
         <v>13</v>
       </c>
-      <c r="H10" t="s">
+      <c r="G12" t="s">
         <v>14</v>
       </c>
-      <c r="I10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" t="s">
-        <v>21</v>
-      </c>
-      <c r="G11" t="s">
-        <v>31</v>
-      </c>
-      <c r="H11" t="s"/>
-      <c r="I11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
+        <v>24</v>
+      </c>
+      <c r="G13" t="s"/>
+      <c r="H13" t="s">
+        <v>37</v>
+      </c>
+      <c r="I13" t="s"/>
+      <c r="J13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" t="s">
         <v>13</v>
       </c>
-      <c r="H12" t="s">
+      <c r="G14" t="s">
         <v>14</v>
       </c>
-      <c r="I12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" t="s">
-        <v>21</v>
-      </c>
-      <c r="G13" t="s">
-        <v>34</v>
-      </c>
-      <c r="H13" t="s"/>
-      <c r="I13" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" t="s">
-        <v>13</v>
-      </c>
       <c r="H14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I14" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>21</v>
-      </c>
-      <c r="G15" t="s">
-        <v>37</v>
-      </c>
-      <c r="H15" t="s"/>
-      <c r="I15" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G15" t="s"/>
+      <c r="H15" t="s">
+        <v>40</v>
+      </c>
+      <c r="I15" t="s"/>
+      <c r="J15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I16" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>21</v>
-      </c>
-      <c r="G17" t="s">
-        <v>25</v>
-      </c>
-      <c r="H17" t="s"/>
-      <c r="I17" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G17" t="s"/>
+      <c r="H17" t="s">
+        <v>28</v>
+      </c>
+      <c r="I17" t="s"/>
+      <c r="J17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I18" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>21</v>
-      </c>
-      <c r="G19" t="s">
-        <v>31</v>
-      </c>
-      <c r="H19" t="s"/>
-      <c r="I19" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G19" t="s"/>
+      <c r="H19" t="s">
+        <v>34</v>
+      </c>
+      <c r="I19" t="s"/>
+      <c r="J19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G20" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H20" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I20" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J20" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>21</v>
-      </c>
-      <c r="G21" t="s">
-        <v>31</v>
-      </c>
-      <c r="H21" t="s"/>
-      <c r="I21" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G21" t="s"/>
+      <c r="H21" t="s">
+        <v>34</v>
+      </c>
+      <c r="I21" t="s"/>
+      <c r="J21" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G22" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H22" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I22" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J22" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>21</v>
-      </c>
-      <c r="G23" t="s">
-        <v>31</v>
-      </c>
-      <c r="H23" t="s"/>
-      <c r="I23" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G23" t="s"/>
+      <c r="H23" t="s">
+        <v>34</v>
+      </c>
+      <c r="I23" t="s"/>
+      <c r="J23" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G24" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H24" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I24" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J24" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>21</v>
-      </c>
-      <c r="G25" t="s">
-        <v>31</v>
-      </c>
-      <c r="H25" t="s"/>
-      <c r="I25" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G25" t="s"/>
+      <c r="H25" t="s">
+        <v>34</v>
+      </c>
+      <c r="I25" t="s"/>
+      <c r="J25" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G26" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H26" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I26" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J26" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>21</v>
-      </c>
-      <c r="G27" t="s">
-        <v>31</v>
-      </c>
-      <c r="H27" t="s"/>
-      <c r="I27" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G27" t="s"/>
+      <c r="H27" t="s">
+        <v>34</v>
+      </c>
+      <c r="I27" t="s"/>
+      <c r="J27" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G28" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H28" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I28" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J28" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>21</v>
-      </c>
-      <c r="G29" t="s">
-        <v>31</v>
-      </c>
-      <c r="H29" t="s"/>
-      <c r="I29" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G29" t="s"/>
+      <c r="H29" t="s">
+        <v>34</v>
+      </c>
+      <c r="I29" t="s"/>
+      <c r="J29" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G30" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H30" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I30" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J30" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>21</v>
-      </c>
-      <c r="G31" t="s">
-        <v>28</v>
-      </c>
-      <c r="H31" t="s"/>
-      <c r="I31" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G31" t="s"/>
+      <c r="H31" t="s">
+        <v>31</v>
+      </c>
+      <c r="I31" t="s"/>
+      <c r="J31" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G32" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H32" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I32" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J32" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>21</v>
-      </c>
-      <c r="G33" t="s">
-        <v>34</v>
-      </c>
-      <c r="H33" t="s"/>
-      <c r="I33" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G33" t="s"/>
+      <c r="H33" t="s">
+        <v>37</v>
+      </c>
+      <c r="I33" t="s"/>
+      <c r="J33" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G34" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H34" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I34" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J34" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>21</v>
-      </c>
-      <c r="G35" t="s">
-        <v>34</v>
-      </c>
-      <c r="H35" t="s"/>
-      <c r="I35" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G35" t="s"/>
+      <c r="H35" t="s">
+        <v>37</v>
+      </c>
+      <c r="I35" t="s"/>
+      <c r="J35" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>21</v>
-      </c>
-      <c r="G36" t="s">
-        <v>37</v>
-      </c>
-      <c r="H36" t="s"/>
-      <c r="I36" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G36" t="s"/>
+      <c r="H36" t="s">
+        <v>40</v>
+      </c>
+      <c r="I36" t="s"/>
+      <c r="J36" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G37" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H37" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I37" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J37" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G38" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H38" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I38" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J38" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>21</v>
-      </c>
-      <c r="G39" t="s">
-        <v>31</v>
-      </c>
-      <c r="H39" t="s"/>
-      <c r="I39" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G39" t="s"/>
+      <c r="H39" t="s">
+        <v>34</v>
+      </c>
+      <c r="I39" t="s"/>
+      <c r="J39" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G40" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H40" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I40" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J40" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>21</v>
-      </c>
-      <c r="G41" t="s">
-        <v>31</v>
-      </c>
-      <c r="H41" t="s"/>
-      <c r="I41" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G41" t="s"/>
+      <c r="H41" t="s">
+        <v>34</v>
+      </c>
+      <c r="I41" t="s"/>
+      <c r="J41" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G42" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H42" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I42" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J42" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>21</v>
-      </c>
-      <c r="G43" t="s">
-        <v>31</v>
-      </c>
-      <c r="H43" t="s"/>
-      <c r="I43" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G43" t="s"/>
+      <c r="H43" t="s">
+        <v>34</v>
+      </c>
+      <c r="I43" t="s"/>
+      <c r="J43" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G44" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H44" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I44" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J44" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>21</v>
-      </c>
-      <c r="G45" t="s">
-        <v>31</v>
-      </c>
-      <c r="H45" t="s"/>
-      <c r="I45" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G45" t="s"/>
+      <c r="H45" t="s">
+        <v>34</v>
+      </c>
+      <c r="I45" t="s"/>
+      <c r="J45" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G46" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H46" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I46" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J46" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>21</v>
-      </c>
-      <c r="G47" t="s">
-        <v>31</v>
-      </c>
-      <c r="H47" t="s"/>
-      <c r="I47" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G47" t="s"/>
+      <c r="H47" t="s">
+        <v>34</v>
+      </c>
+      <c r="I47" t="s"/>
+      <c r="J47" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G48" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H48" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I48" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J48" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>21</v>
-      </c>
-      <c r="G49" t="s">
-        <v>37</v>
-      </c>
-      <c r="H49" t="s"/>
-      <c r="I49" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G49" t="s"/>
+      <c r="H49" t="s">
+        <v>40</v>
+      </c>
+      <c r="I49" t="s"/>
+      <c r="J49" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G50" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H50" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I50" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J50" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>21</v>
-      </c>
-      <c r="G51" t="s">
-        <v>37</v>
-      </c>
-      <c r="H51" t="s"/>
-      <c r="I51" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G51" t="s"/>
+      <c r="H51" t="s">
+        <v>40</v>
+      </c>
+      <c r="I51" t="s"/>
+      <c r="J51" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G52" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H52" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I52" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J52" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>21</v>
-      </c>
-      <c r="G53" t="s">
-        <v>37</v>
-      </c>
-      <c r="H53" t="s"/>
-      <c r="I53" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G53" t="s"/>
+      <c r="H53" t="s">
+        <v>40</v>
+      </c>
+      <c r="I53" t="s"/>
+      <c r="J53" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G54" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H54" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I54" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J54" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>21</v>
-      </c>
-      <c r="G55" t="s">
-        <v>37</v>
-      </c>
-      <c r="H55" t="s"/>
-      <c r="I55" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G55" t="s"/>
+      <c r="H55" t="s">
+        <v>40</v>
+      </c>
+      <c r="I55" t="s"/>
+      <c r="J55" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G56" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H56" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I56" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J56" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>21</v>
-      </c>
-      <c r="G57" t="s">
-        <v>37</v>
-      </c>
-      <c r="H57" t="s"/>
-      <c r="I57" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G57" t="s"/>
+      <c r="H57" t="s">
+        <v>40</v>
+      </c>
+      <c r="I57" t="s"/>
+      <c r="J57" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G58" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H58" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I58" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J58" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>21</v>
-      </c>
-      <c r="G59" t="s">
-        <v>37</v>
-      </c>
-      <c r="H59" t="s"/>
-      <c r="I59" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G59" t="s"/>
+      <c r="H59" t="s">
+        <v>40</v>
+      </c>
+      <c r="I59" t="s"/>
+      <c r="J59" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G60" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H60" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I60" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J60" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>21</v>
-      </c>
-      <c r="G61" t="s">
-        <v>37</v>
-      </c>
-      <c r="H61" t="s"/>
-      <c r="I61" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G61" t="s"/>
+      <c r="H61" t="s">
+        <v>40</v>
+      </c>
+      <c r="I61" t="s"/>
+      <c r="J61" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F62" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G62" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H62" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I62" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J62" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F63" t="s">
-        <v>21</v>
-      </c>
-      <c r="G63" t="s">
-        <v>37</v>
-      </c>
-      <c r="H63" t="s"/>
-      <c r="I63" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G63" t="s"/>
+      <c r="H63" t="s">
+        <v>40</v>
+      </c>
+      <c r="I63" t="s"/>
+      <c r="J63" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F64" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G64" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H64" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I64" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J64" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F65" t="s">
-        <v>21</v>
-      </c>
-      <c r="G65" t="s">
-        <v>37</v>
-      </c>
-      <c r="H65" t="s"/>
-      <c r="I65" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G65" t="s"/>
+      <c r="H65" t="s">
+        <v>40</v>
+      </c>
+      <c r="I65" t="s"/>
+      <c r="J65" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F66" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G66" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H66" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I66" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J66" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F67" t="s">
-        <v>21</v>
-      </c>
-      <c r="G67" t="s">
-        <v>37</v>
-      </c>
-      <c r="H67" t="s"/>
-      <c r="I67" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G67" t="s"/>
+      <c r="H67" t="s">
+        <v>40</v>
+      </c>
+      <c r="I67" t="s"/>
+      <c r="J67" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E68" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F68" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G68" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H68" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I68" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J68" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E69" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F69" t="s">
-        <v>21</v>
-      </c>
-      <c r="G69" t="s">
-        <v>37</v>
-      </c>
-      <c r="H69" t="s"/>
-      <c r="I69" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G69" t="s"/>
+      <c r="H69" t="s">
+        <v>40</v>
+      </c>
+      <c r="I69" t="s"/>
+      <c r="J69" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E70" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F70" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G70" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H70" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I70" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J70" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F71" t="s">
-        <v>21</v>
-      </c>
-      <c r="G71" t="s">
-        <v>28</v>
-      </c>
-      <c r="H71" t="s"/>
-      <c r="I71" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G71" t="s"/>
+      <c r="H71" t="s">
+        <v>31</v>
+      </c>
+      <c r="I71" t="s"/>
+      <c r="J71" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E72" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F72" t="s">
-        <v>21</v>
-      </c>
-      <c r="G72" t="s">
-        <v>34</v>
-      </c>
-      <c r="H72" t="s"/>
-      <c r="I72" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G72" t="s"/>
+      <c r="H72" t="s">
+        <v>37</v>
+      </c>
+      <c r="I72" t="s"/>
+      <c r="J72" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E73" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F73" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G73" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H73" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I73" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J73" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E74" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F74" t="s">
-        <v>21</v>
-      </c>
-      <c r="G74" t="s">
-        <v>25</v>
-      </c>
-      <c r="H74" t="s"/>
-      <c r="I74" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G74" t="s"/>
+      <c r="H74" t="s">
+        <v>28</v>
+      </c>
+      <c r="I74" t="s"/>
+      <c r="J74" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E75" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F75" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G75" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H75" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I75" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J75" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E76" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F76" t="s">
-        <v>21</v>
-      </c>
-      <c r="G76" t="s">
-        <v>31</v>
-      </c>
-      <c r="H76" t="s"/>
-      <c r="I76" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G76" t="s"/>
+      <c r="H76" t="s">
+        <v>34</v>
+      </c>
+      <c r="I76" t="s"/>
+      <c r="J76" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E77" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F77" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G77" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H77" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I77" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J77" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E78" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F78" t="s">
-        <v>21</v>
-      </c>
-      <c r="G78" t="s">
-        <v>37</v>
-      </c>
-      <c r="H78" t="s"/>
-      <c r="I78" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G78" t="s"/>
+      <c r="H78" t="s">
+        <v>40</v>
+      </c>
+      <c r="I78" t="s"/>
+      <c r="J78" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E79" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F79" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G79" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H79" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I79" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J79" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E80" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F80" t="s">
-        <v>21</v>
-      </c>
-      <c r="G80" t="s">
-        <v>34</v>
-      </c>
-      <c r="H80" t="s"/>
-      <c r="I80" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G80" t="s"/>
+      <c r="H80" t="s">
+        <v>37</v>
+      </c>
+      <c r="I80" t="s"/>
+      <c r="J80" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E81" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F81" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G81" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H81" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I81" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J81" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E82" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F82" t="s">
-        <v>21</v>
-      </c>
-      <c r="G82" t="s">
-        <v>34</v>
-      </c>
-      <c r="H82" t="s"/>
-      <c r="I82" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G82" t="s"/>
+      <c r="H82" t="s">
+        <v>37</v>
+      </c>
+      <c r="I82" t="s"/>
+      <c r="J82" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E83" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F83" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G83" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H83" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I83" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J83" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E84" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F84" t="s">
-        <v>21</v>
-      </c>
-      <c r="G84" t="s">
-        <v>28</v>
-      </c>
-      <c r="H84" t="s"/>
-      <c r="I84" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G84" t="s"/>
+      <c r="H84" t="s">
+        <v>31</v>
+      </c>
+      <c r="I84" t="s"/>
+      <c r="J84" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E85" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F85" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G85" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H85" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I85" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J85" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E86" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F86" t="s">
-        <v>21</v>
-      </c>
-      <c r="G86" t="s">
-        <v>31</v>
-      </c>
-      <c r="H86" t="s"/>
-      <c r="I86" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G86" t="s"/>
+      <c r="H86" t="s">
+        <v>34</v>
+      </c>
+      <c r="I86" t="s"/>
+      <c r="J86" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E87" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F87" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G87" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H87" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I87" t="s">
-        <v>103</v>
+        <v>16</v>
+      </c>
+      <c r="J87" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
